--- a/sequences/25_localizer.xlsx
+++ b/sequences/25_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>car</t>
-  </si>
-  <si>
-    <t>flower</t>
+    <t>flower/flower013.png</t>
+  </si>
+  <si>
+    <t>car/car010.png</t>
+  </si>
+  <si>
+    <t>car/car005.png</t>
+  </si>
+  <si>
+    <t>dog/dog003.png</t>
+  </si>
+  <si>
+    <t>face/face002.png</t>
+  </si>
+  <si>
+    <t>car/car011.png</t>
+  </si>
+  <si>
+    <t>flower/flower007.png</t>
+  </si>
+  <si>
+    <t>flower/flower011.png</t>
+  </si>
+  <si>
+    <t>car/car008.png</t>
+  </si>
+  <si>
+    <t>flower/flower008.png</t>
+  </si>
+  <si>
+    <t>car/car015.png</t>
+  </si>
+  <si>
+    <t>face/face010.png</t>
+  </si>
+  <si>
+    <t>dog/dog006.png</t>
+  </si>
+  <si>
+    <t>car/car013.png</t>
+  </si>
+  <si>
+    <t>flower/flower006.png</t>
   </si>
   <si>
     <t>face/face004.png</t>
   </si>
   <si>
+    <t>face/face015.png</t>
+  </si>
+  <si>
+    <t>face/face013.png</t>
+  </si>
+  <si>
+    <t>flower/flower010.png</t>
+  </si>
+  <si>
+    <t>flower/flower005.png</t>
+  </si>
+  <si>
+    <t>face/face008.png</t>
+  </si>
+  <si>
+    <t>car/car004.png</t>
+  </si>
+  <si>
+    <t>face/face011.png</t>
+  </si>
+  <si>
+    <t>car/car002.png</t>
+  </si>
+  <si>
+    <t>car/car009.png</t>
+  </si>
+  <si>
+    <t>car/car000.png</t>
+  </si>
+  <si>
+    <t>flower/flower001.png</t>
+  </si>
+  <si>
+    <t>dog/dog005.png</t>
+  </si>
+  <si>
+    <t>face/face012.png</t>
+  </si>
+  <si>
+    <t>dog/dog007.png</t>
+  </si>
+  <si>
+    <t>dog/dog010.png</t>
+  </si>
+  <si>
+    <t>dog/dog012.png</t>
+  </si>
+  <si>
+    <t>face/face003.png</t>
+  </si>
+  <si>
+    <t>flower/flower003.png</t>
+  </si>
+  <si>
+    <t>dog/dog009.png</t>
+  </si>
+  <si>
+    <t>car/car003.png</t>
+  </si>
+  <si>
+    <t>car/car006.png</t>
+  </si>
+  <si>
+    <t>face/face005.png</t>
+  </si>
+  <si>
+    <t>flower/flower002.png</t>
+  </si>
+  <si>
+    <t>car/car001.png</t>
+  </si>
+  <si>
+    <t>dog/dog008.png</t>
+  </si>
+  <si>
+    <t>car/car014.png</t>
+  </si>
+  <si>
+    <t>face/face006.png</t>
+  </si>
+  <si>
+    <t>face/face007.png</t>
+  </si>
+  <si>
+    <t>dog/dog002.png</t>
+  </si>
+  <si>
+    <t>flower/flower012.png</t>
+  </si>
+  <si>
+    <t>flower/flower000.png</t>
+  </si>
+  <si>
+    <t>flower/flower015.png</t>
+  </si>
+  <si>
+    <t>dog/dog014.png</t>
+  </si>
+  <si>
     <t>dog/dog001.png</t>
   </si>
   <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
+    <t>flower/flower014.png</t>
+  </si>
+  <si>
+    <t>face/face014.png</t>
+  </si>
+  <si>
+    <t>flower/flower004.png</t>
+  </si>
+  <si>
+    <t>face/face000.png</t>
+  </si>
+  <si>
+    <t>dog/dog000.png</t>
+  </si>
+  <si>
+    <t>face/face009.png</t>
+  </si>
+  <si>
+    <t>face/face001.png</t>
+  </si>
+  <si>
+    <t>car/car007.png</t>
+  </si>
+  <si>
+    <t>dog/dog013.png</t>
+  </si>
+  <si>
+    <t>dog/dog011.png</t>
   </si>
   <si>
     <t>car/car012.png</t>
   </si>
   <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
+    <t>dog/dog015.png</t>
   </si>
   <si>
     <t>flower/flower009.png</t>
   </si>
   <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
     <t>dog/dog004.png</t>
   </si>
   <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
+    <t>dog/dog019.png</t>
+  </si>
+  <si>
+    <t>car/car019.png</t>
+  </si>
+  <si>
+    <t>face/face024.png</t>
+  </si>
+  <si>
+    <t>car/car021.png</t>
+  </si>
+  <si>
+    <t>face/face031.png</t>
+  </si>
+  <si>
+    <t>dog/dog022.png</t>
+  </si>
+  <si>
+    <t>dog/dog020.png</t>
+  </si>
+  <si>
+    <t>dog/dog028.png</t>
+  </si>
+  <si>
+    <t>face/face016.png</t>
+  </si>
+  <si>
+    <t>car/car018.png</t>
+  </si>
+  <si>
+    <t>flower/flower025.png</t>
+  </si>
+  <si>
+    <t>flower/flower019.png</t>
+  </si>
+  <si>
+    <t>dog/dog027.png</t>
+  </si>
+  <si>
+    <t>car/car025.png</t>
+  </si>
+  <si>
+    <t>dog/dog031.png</t>
+  </si>
+  <si>
+    <t>face/face022.png</t>
+  </si>
+  <si>
+    <t>flower/flower021.png</t>
+  </si>
+  <si>
+    <t>face/face030.png</t>
+  </si>
+  <si>
+    <t>flower/flower018.png</t>
+  </si>
+  <si>
+    <t>dog/dog018.png</t>
   </si>
   <si>
     <t>flower/flower028.png</t>
   </si>
   <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
+    <t>dog/dog023.png</t>
+  </si>
+  <si>
+    <t>dog/dog017.png</t>
+  </si>
+  <si>
+    <t>car/car027.png</t>
+  </si>
+  <si>
+    <t>car/car016.png</t>
+  </si>
+  <si>
+    <t>dog/dog026.png</t>
+  </si>
+  <si>
+    <t>dog/dog024.png</t>
+  </si>
+  <si>
+    <t>flower/flower024.png</t>
+  </si>
+  <si>
+    <t>flower/flower027.png</t>
+  </si>
+  <si>
+    <t>car/car023.png</t>
+  </si>
+  <si>
+    <t>flower/flower020.png</t>
+  </si>
+  <si>
+    <t>car/car022.png</t>
+  </si>
+  <si>
+    <t>face/face026.png</t>
+  </si>
+  <si>
+    <t>flower/flower030.png</t>
+  </si>
+  <si>
+    <t>car/car017.png</t>
   </si>
   <si>
     <t>dog/dog029.png</t>
   </si>
   <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
+    <t>car/car031.png</t>
+  </si>
+  <si>
+    <t>flower/flower029.png</t>
+  </si>
+  <si>
+    <t>dog/dog030.png</t>
+  </si>
+  <si>
+    <t>face/face017.png</t>
+  </si>
+  <si>
+    <t>face/face028.png</t>
+  </si>
+  <si>
+    <t>dog/dog021.png</t>
+  </si>
+  <si>
+    <t>flower/flower017.png</t>
+  </si>
+  <si>
+    <t>face/face019.png</t>
+  </si>
+  <si>
+    <t>car/car030.png</t>
+  </si>
+  <si>
+    <t>dog/dog025.png</t>
+  </si>
+  <si>
+    <t>flower/flower022.png</t>
+  </si>
+  <si>
+    <t>car/car026.png</t>
+  </si>
+  <si>
+    <t>car/car029.png</t>
+  </si>
+  <si>
+    <t>face/face023.png</t>
+  </si>
+  <si>
+    <t>face/face020.png</t>
+  </si>
+  <si>
+    <t>face/face021.png</t>
+  </si>
+  <si>
+    <t>car/car024.png</t>
+  </si>
+  <si>
+    <t>car/car028.png</t>
+  </si>
+  <si>
+    <t>car/car020.png</t>
+  </si>
+  <si>
+    <t>flower/flower023.png</t>
+  </si>
+  <si>
+    <t>face/face018.png</t>
   </si>
   <si>
     <t>face/face029.png</t>
   </si>
   <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
+    <t>flower/flower031.png</t>
+  </si>
+  <si>
+    <t>flower/flower026.png</t>
   </si>
   <si>
     <t>flower/flower016.png</t>
   </si>
   <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
+    <t>face/face025.png</t>
+  </si>
+  <si>
+    <t>dog/dog016.png</t>
   </si>
   <si>
     <t>face/face027.png</t>
   </si>
   <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
+    <t>dog/dog041.png</t>
+  </si>
+  <si>
+    <t>car/car047.png</t>
+  </si>
+  <si>
+    <t>face/face040.png</t>
+  </si>
+  <si>
+    <t>dog/dog036.png</t>
+  </si>
+  <si>
+    <t>flower/flower043.png</t>
+  </si>
+  <si>
+    <t>car/car040.png</t>
+  </si>
+  <si>
+    <t>flower/flower033.png</t>
+  </si>
+  <si>
+    <t>face/face046.png</t>
+  </si>
+  <si>
+    <t>car/car032.png</t>
+  </si>
+  <si>
+    <t>dog/dog046.png</t>
+  </si>
+  <si>
+    <t>dog/dog037.png</t>
+  </si>
+  <si>
+    <t>dog/dog039.png</t>
+  </si>
+  <si>
+    <t>car/car046.png</t>
+  </si>
+  <si>
+    <t>flower/flower032.png</t>
+  </si>
+  <si>
+    <t>flower/flower042.png</t>
+  </si>
+  <si>
+    <t>flower/flower046.png</t>
+  </si>
+  <si>
+    <t>dog/dog044.png</t>
+  </si>
+  <si>
+    <t>face/face045.png</t>
+  </si>
+  <si>
+    <t>dog/dog042.png</t>
+  </si>
+  <si>
+    <t>dog/dog033.png</t>
+  </si>
+  <si>
+    <t>face/face044.png</t>
+  </si>
+  <si>
+    <t>face/face033.png</t>
+  </si>
+  <si>
+    <t>flower/flower037.png</t>
+  </si>
+  <si>
+    <t>car/car044.png</t>
+  </si>
+  <si>
+    <t>face/face036.png</t>
+  </si>
+  <si>
+    <t>face/face032.png</t>
+  </si>
+  <si>
+    <t>dog/dog034.png</t>
+  </si>
+  <si>
+    <t>car/car037.png</t>
+  </si>
+  <si>
+    <t>car/car039.png</t>
+  </si>
+  <si>
+    <t>face/face041.png</t>
+  </si>
+  <si>
+    <t>flower/flower044.png</t>
+  </si>
+  <si>
+    <t>dog/dog040.png</t>
+  </si>
+  <si>
+    <t>dog/dog038.png</t>
+  </si>
+  <si>
+    <t>flower/flower041.png</t>
+  </si>
+  <si>
+    <t>dog/dog043.png</t>
+  </si>
+  <si>
+    <t>car/car034.png</t>
+  </si>
+  <si>
+    <t>dog/dog035.png</t>
+  </si>
+  <si>
+    <t>flower/flower047.png</t>
+  </si>
+  <si>
+    <t>flower/flower045.png</t>
+  </si>
+  <si>
+    <t>car/car036.png</t>
+  </si>
+  <si>
+    <t>car/car043.png</t>
   </si>
   <si>
     <t>car/car033.png</t>
   </si>
   <si>
-    <t>dog/dog039.png</t>
+    <t>flower/flower038.png</t>
+  </si>
+  <si>
+    <t>dog/dog032.png</t>
+  </si>
+  <si>
+    <t>flower/flower040.png</t>
+  </si>
+  <si>
+    <t>face/face042.png</t>
+  </si>
+  <si>
+    <t>dog/dog045.png</t>
+  </si>
+  <si>
+    <t>face/face034.png</t>
+  </si>
+  <si>
+    <t>flower/flower035.png</t>
+  </si>
+  <si>
+    <t>face/face047.png</t>
+  </si>
+  <si>
+    <t>flower/flower034.png</t>
+  </si>
+  <si>
+    <t>flower/flower036.png</t>
+  </si>
+  <si>
+    <t>face/face039.png</t>
+  </si>
+  <si>
+    <t>face/face037.png</t>
+  </si>
+  <si>
+    <t>face/face035.png</t>
+  </si>
+  <si>
+    <t>car/car045.png</t>
+  </si>
+  <si>
+    <t>flower/flower039.png</t>
+  </si>
+  <si>
+    <t>car/car035.png</t>
+  </si>
+  <si>
+    <t>dog/dog047.png</t>
   </si>
   <si>
     <t>face/face038.png</t>
   </si>
   <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
+    <t>car/car038.png</t>
+  </si>
+  <si>
+    <t>face/face043.png</t>
   </si>
   <si>
     <t>car/car041.png</t>
   </si>
   <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
     <t>car/car042.png</t>
   </si>
   <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
+    <t>car/car056.png</t>
+  </si>
+  <si>
+    <t>face/face055.png</t>
+  </si>
+  <si>
+    <t>face/face057.png</t>
+  </si>
+  <si>
+    <t>face/face050.png</t>
+  </si>
+  <si>
+    <t>flower/flower052.png</t>
+  </si>
+  <si>
+    <t>car/car054.png</t>
+  </si>
+  <si>
+    <t>car/car058.png</t>
+  </si>
+  <si>
+    <t>dog/dog061.png</t>
+  </si>
+  <si>
+    <t>car/car053.png</t>
+  </si>
+  <si>
+    <t>flower/flower057.png</t>
+  </si>
+  <si>
+    <t>face/face061.png</t>
+  </si>
+  <si>
+    <t>car/car063.png</t>
+  </si>
+  <si>
+    <t>flower/flower062.png</t>
+  </si>
+  <si>
+    <t>car/car059.png</t>
+  </si>
+  <si>
+    <t>dog/dog062.png</t>
+  </si>
+  <si>
+    <t>flower/flower055.png</t>
+  </si>
+  <si>
+    <t>flower/flower050.png</t>
+  </si>
+  <si>
+    <t>car/car062.png</t>
+  </si>
+  <si>
+    <t>flower/flower060.png</t>
+  </si>
+  <si>
+    <t>dog/dog063.png</t>
+  </si>
+  <si>
+    <t>face/face063.png</t>
+  </si>
+  <si>
+    <t>flower/flower053.png</t>
+  </si>
+  <si>
+    <t>flower/flower051.png</t>
+  </si>
+  <si>
+    <t>dog/dog056.png</t>
+  </si>
+  <si>
+    <t>car/car060.png</t>
+  </si>
+  <si>
+    <t>dog/dog060.png</t>
+  </si>
+  <si>
+    <t>dog/dog048.png</t>
+  </si>
+  <si>
+    <t>face/face056.png</t>
   </si>
   <si>
     <t>dog/dog057.png</t>
   </si>
   <si>
+    <t>face/face054.png</t>
+  </si>
+  <si>
+    <t>car/car055.png</t>
+  </si>
+  <si>
+    <t>car/car061.png</t>
+  </si>
+  <si>
+    <t>car/car051.png</t>
+  </si>
+  <si>
+    <t>flower/flower061.png</t>
+  </si>
+  <si>
+    <t>flower/flower048.png</t>
+  </si>
+  <si>
+    <t>flower/flower049.png</t>
+  </si>
+  <si>
+    <t>face/face058.png</t>
+  </si>
+  <si>
+    <t>face/face053.png</t>
+  </si>
+  <si>
     <t>car/car050.png</t>
   </si>
   <si>
+    <t>face/face052.png</t>
+  </si>
+  <si>
+    <t>flower/flower059.png</t>
+  </si>
+  <si>
+    <t>dog/dog059.png</t>
+  </si>
+  <si>
+    <t>flower/flower056.png</t>
+  </si>
+  <si>
+    <t>face/face060.png</t>
+  </si>
+  <si>
+    <t>flower/flower054.png</t>
+  </si>
+  <si>
+    <t>face/face048.png</t>
+  </si>
+  <si>
+    <t>dog/dog053.png</t>
+  </si>
+  <si>
+    <t>flower/flower058.png</t>
+  </si>
+  <si>
+    <t>dog/dog051.png</t>
+  </si>
+  <si>
+    <t>dog/dog054.png</t>
+  </si>
+  <si>
+    <t>dog/dog055.png</t>
+  </si>
+  <si>
+    <t>flower/flower063.png</t>
+  </si>
+  <si>
+    <t>car/car049.png</t>
+  </si>
+  <si>
+    <t>face/face049.png</t>
+  </si>
+  <si>
+    <t>car/car048.png</t>
+  </si>
+  <si>
+    <t>dog/dog049.png</t>
+  </si>
+  <si>
+    <t>face/face062.png</t>
+  </si>
+  <si>
+    <t>face/face059.png</t>
+  </si>
+  <si>
+    <t>dog/dog058.png</t>
+  </si>
+  <si>
+    <t>car/car052.png</t>
+  </si>
+  <si>
+    <t>face/face051.png</t>
+  </si>
+  <si>
+    <t>dog/dog052.png</t>
+  </si>
+  <si>
+    <t>dog/dog050.png</t>
+  </si>
+  <si>
     <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.549558578159234</v>
+        <v>1.492229748376117</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.399059201729635</v>
+        <v>1.552213636857129</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.624292542395336</v>
+        <v>1.468348536524638</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.23158360250476</v>
+        <v>1.433702593308986</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.529963131597299</v>
+        <v>1.389164615479824</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1.158297027753148</v>
+        <v>1.566653979332372</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.407958388547866</v>
+        <v>1.369456996533283</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.459525282143365</v>
+        <v>1.32632281322301</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.3664188985763</v>
+        <v>1.650611207509225</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1.340158861493066</v>
+        <v>1.611845881040521</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1.638254896723143</v>
+        <v>1.549106935114242</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.63833482613664</v>
+        <v>1.694986143771038</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.271691814026056</v>
+        <v>1.523799945316503</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.81206597966542</v>
+        <v>1.355991550100309</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.5338873705156</v>
+        <v>1.66732367416628</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.654404539361768</v>
+        <v>1.480859350251457</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.382574649337006</v>
+        <v>1.6999318026154</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.679375995578936</v>
+        <v>1.311125915782927</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>1.624805355776595</v>
+        <v>1.317918155615107</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.455669371330803</v>
+        <v>1.509933889577047</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.574262793988513</v>
+        <v>1.246586276904351</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.580935628741764</v>
+        <v>1.326843787146758</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1.205026203008735</v>
+        <v>1.502401063836898</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1.354263349129641</v>
+        <v>1.314857411559802</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.371141567741638</v>
+        <v>1.301262274245609</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.465389424592413</v>
+        <v>1.791117540672948</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.579230127920183</v>
+        <v>1.606148574125441</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.497495767327754</v>
+        <v>1.15389437569968</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.418831928318683</v>
+        <v>1.554597960781419</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.716595889879374</v>
+        <v>1.406436208701759</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.384259265883462</v>
+        <v>1.461632269891713</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.405825657003901</v>
+        <v>1.364150308738571</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.447847849698327</v>
+        <v>1.639938768194106</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.51665795601279</v>
+        <v>1.346691938832998</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <v>1.612722861461934</v>
+        <v>1.67511861427365</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.551756763696599</v>
+        <v>1.400675132881249</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.533512023907039</v>
+        <v>1.272850568041683</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.433974158203575</v>
+        <v>1.596862325690387</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1.500297281819386</v>
+        <v>1.695588169022448</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.554342433817576</v>
+        <v>1.313589789539544</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.433302366739055</v>
+        <v>1.609405422194729</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.362213707188285</v>
+        <v>1.485601145507312</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.552518469176537</v>
+        <v>1.650618801671061</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>1.601516416096561</v>
+        <v>1.586240143753832</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.618457077215324</v>
+        <v>1.408243682620586</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>1.544236582423972</v>
+        <v>1.635585121952736</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.65587907494262</v>
+        <v>1.373897948989892</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.460490632143572</v>
+        <v>1.42875393777535</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.473775274858152</v>
+        <v>1.577933753995808</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>1.690133840982969</v>
+        <v>1.594913265296472</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.60047824167137</v>
+        <v>1.652415564234301</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.405404281939283</v>
+        <v>1.641154554683981</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="F54">
-        <v>1.3497897470672</v>
+        <v>1.360356701346095</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.316387328903211</v>
+        <v>1.706039664371514</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.753960306086564</v>
+        <v>1.455581489263531</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.27588675614226</v>
+        <v>1.534195123731232</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>1.580740362516352</v>
+        <v>1.6356363153915</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.570111592010491</v>
+        <v>1.709270680476033</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.483226456232706</v>
+        <v>1.426773047546756</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.680899785544404</v>
+        <v>1.411522806332114</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.556296188581515</v>
+        <v>1.613711472593657</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.847016320549906</v>
+        <v>1.347979141900856</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.416993390107098</v>
+        <v>1.445883390631992</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.167295984001688</v>
+        <v>1.427025211791624</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.461508320069291</v>
+        <v>1.438932884087655</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.391330103246168</v>
+        <v>1.373931869267695</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.68726577304692</v>
+        <v>1.450459070724109</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.648655514765531</v>
+        <v>1.402422017305035</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2563,10 +2563,10 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>1.406479640693859</v>
+        <v>1.392848882095769</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2583,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>1.501485888980664</v>
+        <v>1.448324840888353</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.370672599387549</v>
+        <v>1.38301760205562</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2623,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>1.212772805846779</v>
+        <v>1.477430015323252</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.677652565708555</v>
+        <v>1.66117849625703</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.664546154178083</v>
+        <v>1.700890759142267</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.174767432664531</v>
+        <v>1.483929746990111</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.347470258624222</v>
+        <v>1.539426535653056</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.792828280785776</v>
+        <v>1.574577543468143</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.602670959620591</v>
+        <v>1.4053773166963</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.607286037430749</v>
+        <v>1.524902228905078</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2783,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>1.256060082081265</v>
+        <v>1.785071865434329</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2803,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82">
-        <v>1.66462955061361</v>
+        <v>1.270551520982571</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.660112277667382</v>
+        <v>1.384339330202966</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.515637841524669</v>
+        <v>1.048792453940882</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.53180345292566</v>
+        <v>1.255290935197698</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.625437847845765</v>
+        <v>1.497693327748451</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.633231137425427</v>
+        <v>1.170085430604404</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.740559549152305</v>
+        <v>1.555792672381737</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.819186095696367</v>
+        <v>1.616608628994561</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.493914845097718</v>
+        <v>1.569711605116506</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2983,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91">
-        <v>1.477064328308723</v>
+        <v>1.546890476386382</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.709145895881615</v>
+        <v>1.485570452487101</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3023,10 +3023,10 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93">
-        <v>1.278623585284528</v>
+        <v>1.761553743263417</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>1.360426326225773</v>
+        <v>1.387802358027544</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95">
-        <v>1.491391606504349</v>
+        <v>1.369203871960781</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.648697563400472</v>
+        <v>1.540974683594087</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.639251360081232</v>
+        <v>1.376433298167732</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.658489177885809</v>
+        <v>1.389921853774774</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.482955969156426</v>
+        <v>1.620145426735288</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.70788165256959</v>
+        <v>1.477058771459537</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.62049993441577</v>
+        <v>1.756796397431907</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.595488020330672</v>
+        <v>1.683745498930763</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3223,10 +3223,10 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>1.289400274612462</v>
+        <v>1.546781764558852</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.292641999610613</v>
+        <v>1.576560888468635</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>1.53963052599723</v>
+        <v>1.215545029863026</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.530427839248629</v>
+        <v>1.428979443000534</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.327631229868426</v>
+        <v>1.455416676051968</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.851117009541561</v>
+        <v>1.552728059072415</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.69562771139429</v>
+        <v>1.679273115671672</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3363,10 +3363,10 @@
         <v>1</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110">
-        <v>1.557127723096664</v>
+        <v>1.509019970823749</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3383,10 +3383,10 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>1.443615046353877</v>
+        <v>1.351867417399361</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.389390115088207</v>
+        <v>1.437145410718695</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.214762836076162</v>
+        <v>1.466085581533413</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.736103514716838</v>
+        <v>1.585054097325309</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3463,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>1.598630187866917</v>
+        <v>1.565162509331875</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.459495427578246</v>
+        <v>1.581505537970525</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.67687840991291</v>
+        <v>1.440220814926018</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.456965916063162</v>
+        <v>1.726534587137394</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.229187536938255</v>
+        <v>1.462813838194134</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.6085923799625</v>
+        <v>1.369259769360138</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3583,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>1.636531812588949</v>
+        <v>1.434415160034148</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3603,10 +3603,10 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122">
-        <v>1.283839506300681</v>
+        <v>1.738800337960891</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.454852641636091</v>
+        <v>1.546965732374807</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.137516803334576</v>
+        <v>1.262689399891991</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.323434312141296</v>
+        <v>1.57875068743358</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.377111881706948</v>
+        <v>1.403488934826195</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.351468825378533</v>
+        <v>1.486132180979527</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.610785394155125</v>
+        <v>1.680644626167147</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.435102067269977</v>
+        <v>1.230761176335648</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.381550782621332</v>
+        <v>1.381894208839643</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.527410938875985</v>
+        <v>1.333043081169666</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.515903419541144</v>
+        <v>1.517006659024812</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.335814183498385</v>
+        <v>1.348312765951324</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.690348120143079</v>
+        <v>1.702469361795945</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.623799113431929</v>
+        <v>1.483081150902001</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.346506765320679</v>
+        <v>1.291319217097505</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.598463625190445</v>
+        <v>1.286688745955119</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.44651692443153</v>
+        <v>1.740913269460653</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.514398806615116</v>
+        <v>1.17632236246243</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.363046631928311</v>
+        <v>1.604703997332872</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3983,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141">
-        <v>1.460395741750393</v>
+        <v>1.517736543345543</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.480099508056318</v>
+        <v>1.446231585052642</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4023,10 +4023,10 @@
         <v>2</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143">
-        <v>1.453174910842438</v>
+        <v>1.384421139263087</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.439455308591978</v>
+        <v>1.341943945623036</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.524446579710734</v>
+        <v>1.58975480498791</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4083,10 +4083,10 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>1.594135995962609</v>
+        <v>1.47993081181767</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.510433238633838</v>
+        <v>1.564054341247449</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.18522592310733</v>
+        <v>1.416031680168</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.471926813418426</v>
+        <v>1.622188174555573</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.787602604358838</v>
+        <v>1.26304244412568</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.616096946377657</v>
+        <v>1.447913612240195</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>2</v>
+        <v>1.683528675329227</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.4225688045503</v>
+        <v>1.474854131481796</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>1.383922099320418</v>
+        <v>1.423375143879567</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.423145985039494</v>
+        <v>1.814026621965337</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4283,10 +4283,10 @@
         <v>2</v>
       </c>
       <c r="E156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>1.311356425798101</v>
+        <v>1.446662016903642</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>1</v>
       </c>
       <c r="F157">
-        <v>1.637156395722464</v>
+        <v>1.45525333972486</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.541553074346289</v>
+        <v>1.643574729138273</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.527153484821436</v>
+        <v>1.507401395415298</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.376692321223652</v>
+        <v>1.473718936601905</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.58387484241814</v>
+        <v>1.595976001645561</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.454684343632676</v>
+        <v>1.36275466079987</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4423,10 +4423,10 @@
         <v>2</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163">
-        <v>1.336320132791785</v>
+        <v>1.558900862452957</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.44400445412485</v>
+        <v>1.605267726487415</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165">
-        <v>1.089464849945531</v>
+        <v>1.32210788749147</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.494546173412153</v>
+        <v>1.558148850060729</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.608805960331537</v>
+        <v>1.604892373294208</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.572914376488959</v>
+        <v>1.402727872721587</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.383103500347512</v>
+        <v>1.559616424917142</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.598955563080939</v>
+        <v>1.757417671321788</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.663738497269668</v>
+        <v>1.534388358466977</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4603,10 +4603,10 @@
         <v>2</v>
       </c>
       <c r="E172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>1.491605253048187</v>
+        <v>1.479915087055366</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.445064089959905</v>
+        <v>1.330435571944583</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.659889589277562</v>
+        <v>1.647424523995717</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.330055077612648</v>
+        <v>1.431226588136961</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.502680210253839</v>
+        <v>1.370116512166532</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.586241284142881</v>
+        <v>1.085960373151512</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.422625003650398</v>
+        <v>1.146165048631462</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179">
-        <v>1.323988875189863</v>
+        <v>1.462534808854573</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.570123499063562</v>
+        <v>1.252869928169282</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.645596978659382</v>
+        <v>1.394423910165798</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>1</v>
       </c>
       <c r="F182">
-        <v>1.716981405345774</v>
+        <v>1.239740594910177</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.427407785785694</v>
+        <v>1.347107814096991</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4843,10 +4843,10 @@
         <v>2</v>
       </c>
       <c r="E184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>1.95727054575242</v>
+        <v>1.661157040356217</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.23480176526624</v>
+        <v>1.388568634454698</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.597660359566927</v>
+        <v>1.484564310932418</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>1.461640920472739</v>
+        <v>1.518060064621471</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188">
-        <v>1.680508434368748</v>
+        <v>1.728963796406784</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.489941912003524</v>
+        <v>1.47932608568978</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.258454664036453</v>
+        <v>1.294251221929447</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.292281640158198</v>
+        <v>1.577252798600347</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.6232132305136</v>
+        <v>1.572858262316257</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.235856165592618</v>
+        <v>1.776902797096398</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194">
-        <v>1.489207923976724</v>
+        <v>1.453415016232839</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.639579883983051</v>
+        <v>1.497900605032194</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.903568181387245</v>
+        <v>1.5839267096901</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197">
-        <v>1.305139815812962</v>
+        <v>1.717539553205144</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5123,10 +5123,10 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198">
-        <v>1.498516711982621</v>
+        <v>1.412810337446087</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.759670844552229</v>
+        <v>1.551148942066777</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.466899724536848</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>1.473423268535787</v>
+        <v>1.595189153698113</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.262799849111179</v>
+        <v>1.550289369729723</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.165491737084547</v>
+        <v>1.492928107525535</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.333771982004443</v>
+        <v>1.521613430846077</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.750907861815404</v>
+        <v>1.434177035512289</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5283,10 +5283,10 @@
         <v>3</v>
       </c>
       <c r="E206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F206">
-        <v>1.389791750323318</v>
+        <v>1.589956631692179</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5303,10 +5303,10 @@
         <v>3</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>1.426537509347288</v>
+        <v>1.493812631298934</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.408063391614967</v>
+        <v>1.469989438630973</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.580424654474792</v>
+        <v>1.433913348049777</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.669477776864302</v>
+        <v>1.428814027450044</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.604874345698805</v>
+        <v>1.480169886556892</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.599353431713506</v>
+        <v>1.489769656429127</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5423,10 +5423,10 @@
         <v>3</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F213">
-        <v>1.444833546066754</v>
+        <v>1.531927861711265</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.584543864717365</v>
+        <v>1.068459467523245</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.508463788607181</v>
+        <v>1.413649352458591</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.215869737456229</v>
+        <v>1.724356217029416</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F217">
-        <v>1.382644637091934</v>
+        <v>1.4479365358242</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.519333994648836</v>
+        <v>1.29941755716358</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.432131697823972</v>
+        <v>1.247903520923606</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.560720323490968</v>
+        <v>1.29850161387489</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.363114212226004</v>
+        <v>1.560195700481489</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5603,10 +5603,10 @@
         <v>3</v>
       </c>
       <c r="E222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F222">
-        <v>1.598023115982933</v>
+        <v>1.546158165177469</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.482047284524748</v>
+        <v>1.563265236795022</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.636325933161788</v>
+        <v>1.544072035163618</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.728428197945077</v>
+        <v>1.634264074606956</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.532759904078454</v>
+        <v>1.442534389075289</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.495292093097523</v>
+        <v>1.433362919536098</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.442598677055947</v>
+        <v>1.531102946352764</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.685094284159983</v>
+        <v>1.494831070538954</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.626207414830125</v>
+        <v>1.607949097958323</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.312990896464413</v>
+        <v>1.469492689706585</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5803,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F232">
-        <v>1.658366978288037</v>
+        <v>1.464183610611727</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.505699384465151</v>
+        <v>1.355287389344803</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F234">
-        <v>1.44412483380798</v>
+        <v>1.609009325968574</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5863,10 +5863,10 @@
         <v>3</v>
       </c>
       <c r="E235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F235">
-        <v>1.197731415943194</v>
+        <v>1.584210086482879</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.471339836959561</v>
+        <v>1.58024774749456</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.463640496973452</v>
+        <v>1.550582948875121</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.486664310755939</v>
+        <v>1.500496666785504</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.69386357951904</v>
+        <v>1.528116968458998</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5963,10 +5963,10 @@
         <v>3</v>
       </c>
       <c r="E240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F240">
-        <v>1.586787685809652</v>
+        <v>1.554353213506591</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.44317209667104</v>
+        <v>1.199590352460448</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.477424481734103</v>
+        <v>1.564028346130496</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.65307218278296</v>
+        <v>1.698182064591071</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.270972192045186</v>
+        <v>1.475345516625051</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.846795700405701</v>
+        <v>1.249493287813879</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.574873153146634</v>
+        <v>1.602126767922762</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6103,10 +6103,10 @@
         <v>3</v>
       </c>
       <c r="E247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F247">
-        <v>1.388163771753854</v>
+        <v>1.523931422257617</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.50942121169059</v>
+        <v>1.77416872978996</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.553443448605143</v>
+        <v>1.496280057977038</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.450576536155747</v>
+        <v>1.784288613926414</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F251">
-        <v>1.502574567227147</v>
+        <v>1.422520041689409</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.6795355225018</v>
+        <v>1.225409478939504</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6223,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="E253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F253">
-        <v>1.41919226429678</v>
+        <v>1.685709150668456</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.549469434050692</v>
+        <v>1.403055443693358</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.417236662447396</v>
+        <v>1.205967362938832</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.280111001303026</v>
+        <v>1.435478677106492</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.464640166303389</v>
+        <v>1.268693861354553</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/25_localizer.xlsx
+++ b/sequences/25_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
-    <t>car</t>
-  </si>
-  <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.492229748376117</v>
+        <v>1.991412986437715</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.552213636857129</v>
+        <v>1.496290379132992</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1.468348536524638</v>
+        <v>1.700343696905027</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.433702593308986</v>
+        <v>1.698832929244002</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.389164615479824</v>
+        <v>1.409599585614213</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1.566653979332372</v>
+        <v>1.618168720997231</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.369456996533283</v>
+        <v>1.456601692155711</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1.32632281322301</v>
+        <v>1.63052014967051</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.650611207509225</v>
+        <v>1.742386894564969</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1383,10 +1383,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1.611845881040521</v>
+        <v>1.522338777410047</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1.549106935114242</v>
+        <v>1.578277986097576</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.694986143771038</v>
+        <v>1.505624947820141</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.523799945316503</v>
+        <v>1.540271932727262</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1.355991550100309</v>
+        <v>1.522045079943686</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.66732367416628</v>
+        <v>1.537983250228354</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.480859350251457</v>
+        <v>1.358792208610102</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.6999318026154</v>
+        <v>1.579046376017272</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.311125915782927</v>
+        <v>1.56706789859075</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.317918155615107</v>
+        <v>1.645934156825251</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.509933889577047</v>
+        <v>1.707843973816324</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1.246586276904351</v>
+        <v>1.397043377114492</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.326843787146758</v>
+        <v>1.652876960887446</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1.502401063836898</v>
+        <v>1.557435878263066</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.314857411559802</v>
+        <v>1.548725462690615</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.301262274245609</v>
+        <v>1.315496299706473</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.791117540672948</v>
+        <v>1.402822209489571</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.606148574125441</v>
+        <v>1.637913140252933</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.15389437569968</v>
+        <v>1.374935645014615</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.554597960781419</v>
+        <v>1.392995522595754</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.406436208701759</v>
+        <v>1.618770174350258</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.461632269891713</v>
+        <v>1.230211381486532</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.364150308738571</v>
+        <v>1.286635722124684</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.639938768194106</v>
+        <v>1.278795641715585</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.346691938832998</v>
+        <v>1.299382829209125</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>1.67511861427365</v>
+        <v>1.496559041736289</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.400675132881249</v>
+        <v>1.612017519964283</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.272850568041683</v>
+        <v>1.660892186372186</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.596862325690387</v>
+        <v>1.459539322376072</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.695588169022448</v>
+        <v>1.544497300655208</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.313589789539544</v>
+        <v>1.539578824102568</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.609405422194729</v>
+        <v>1.751434828692026</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.485601145507312</v>
+        <v>1.37252212333202</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.650618801671061</v>
+        <v>1.487326481927862</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>1.586240143753832</v>
+        <v>1.429371270744094</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>1.408243682620586</v>
+        <v>1.827918703089118</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.635585121952736</v>
+        <v>1.586041210965073</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.373897948989892</v>
+        <v>1.489903207604762</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.42875393777535</v>
+        <v>1.709475366478961</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>1.577933753995808</v>
+        <v>1.764596281810275</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>1.594913265296472</v>
+        <v>1.560525837694121</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.652415564234301</v>
+        <v>1.237003020962417</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.641154554683981</v>
+        <v>1.467898213422964</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>1.360356701346095</v>
+        <v>1.516294311019965</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>1.706039664371514</v>
+        <v>1.519259116951128</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>1.455581489263531</v>
+        <v>1.327048303155611</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.534195123731232</v>
+        <v>1.499183029720122</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.6356363153915</v>
+        <v>1.183104464458906</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.709270680476033</v>
+        <v>1.284368336335417</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.426773047546756</v>
+        <v>1.80390750486702</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.411522806332114</v>
+        <v>1.252349308846522</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.613711472593657</v>
+        <v>1.4648221313228</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.347979141900856</v>
+        <v>1.239707304659218</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.445883390631992</v>
+        <v>1.450327618045092</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.427025211791624</v>
+        <v>1.424739682245473</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.438932884087655</v>
+        <v>1.22217941331542</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.373931869267695</v>
+        <v>1.543232509345169</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2523,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>1.450459070724109</v>
+        <v>1.411172954117264</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.402422017305035</v>
+        <v>1.332226315886535</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2563,10 +2563,10 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>1.392848882095769</v>
+        <v>1.568720352830891</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2583,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>1.448324840888353</v>
+        <v>1.497735798235522</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.38301760205562</v>
+        <v>1.638225854363239</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.477430015323252</v>
+        <v>1.710290567286353</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.66117849625703</v>
+        <v>1.44452817323106</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.700890759142267</v>
+        <v>1.452393967433763</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2683,10 +2683,10 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76">
-        <v>1.483929746990111</v>
+        <v>1.343167729151846</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2703,10 +2703,10 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77">
-        <v>1.539426535653056</v>
+        <v>1.670277005269108</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.574577543468143</v>
+        <v>1.497189107617971</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.4053773166963</v>
+        <v>1.567039845943361</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.524902228905078</v>
+        <v>1.564431196603304</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.785071865434329</v>
+        <v>1.608855628049331</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2803,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>1.270551520982571</v>
+        <v>1.492763944015825</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.384339330202966</v>
+        <v>1.409013825755726</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.048792453940882</v>
+        <v>1.471923504397189</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>1.255290935197698</v>
+        <v>1.508026880796626</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.497693327748451</v>
+        <v>1.517914007055042</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.170085430604404</v>
+        <v>1.631299028307885</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.555792672381737</v>
+        <v>1.237871266226301</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.616608628994561</v>
+        <v>1.222619153499236</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.569711605116506</v>
+        <v>1.425407447819268</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2983,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>1.546890476386382</v>
+        <v>1.501555412842011</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.485570452487101</v>
+        <v>1.535894425076282</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3023,10 +3023,10 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>1.761553743263417</v>
+        <v>1.530015806859113</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.387802358027544</v>
+        <v>1.208865160386657</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>1.369203871960781</v>
+        <v>1.544020605354519</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.540974683594087</v>
+        <v>1.644640486605706</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.376433298167732</v>
+        <v>1.285599379909281</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.389921853774774</v>
+        <v>1.280715687270957</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.620145426735288</v>
+        <v>1.338797806783474</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.477058771459537</v>
+        <v>1.49642361296308</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.756796397431907</v>
+        <v>1.294738678280182</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.683745498930763</v>
+        <v>1.582021710039627</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3223,10 +3223,10 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103">
-        <v>1.546781764558852</v>
+        <v>1.603847286291436</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.576560888468635</v>
+        <v>1.657813758004644</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.215545029863026</v>
+        <v>1.382471911351705</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.428979443000534</v>
+        <v>1.785189994565065</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.455416676051968</v>
+        <v>1.686117983799774</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.552728059072415</v>
+        <v>1.793413927969267</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.679273115671672</v>
+        <v>1.497362110941392</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3363,10 +3363,10 @@
         <v>1</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>1.509019970823749</v>
+        <v>1.652053911608793</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3383,10 +3383,10 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111">
-        <v>1.351867417399361</v>
+        <v>1.49016205276481</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.437145410718695</v>
+        <v>1.381296149427863</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.466085581533413</v>
+        <v>1.514519303728374</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.585054097325309</v>
+        <v>1.400016791930044</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3463,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115">
-        <v>1.565162509331875</v>
+        <v>1.472770115794541</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.581505537970525</v>
+        <v>1.540224653600957</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.440220814926018</v>
+        <v>1.41715216553444</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.726534587137394</v>
+        <v>1.742503374765807</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.462813838194134</v>
+        <v>1.428117586986297</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.369259769360138</v>
+        <v>1.513144881525207</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.434415160034148</v>
+        <v>1.358620135203936</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3603,10 +3603,10 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>1.738800337960891</v>
+        <v>1.523486549095503</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123">
-        <v>1.546965732374807</v>
+        <v>1.429952368792247</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.262689399891991</v>
+        <v>1.791976389155514</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.57875068743358</v>
+        <v>1.62710880373431</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.403488934826195</v>
+        <v>1.276788412569275</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.486132180979527</v>
+        <v>1.608957730200403</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.680644626167147</v>
+        <v>1.677530938710501</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.230761176335648</v>
+        <v>1.590026564528695</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.381894208839643</v>
+        <v>1.095168947837643</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3783,10 +3783,10 @@
         <v>2</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131">
-        <v>1.333043081169666</v>
+        <v>1.377369450452276</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.517006659024812</v>
+        <v>1.662554767263043</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.348312765951324</v>
+        <v>1.517764224813504</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.702469361795945</v>
+        <v>1.479345237246699</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.483081150902001</v>
+        <v>1.81798182351145</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.291319217097505</v>
+        <v>1.511549635551223</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3903,10 +3903,10 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137">
-        <v>1.286688745955119</v>
+        <v>1.488369863143982</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138">
-        <v>1.740913269460653</v>
+        <v>1.60003643925875</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.17632236246243</v>
+        <v>1.508014038661521</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.604703997332872</v>
+        <v>1.396576243753742</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3983,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>1.517736543345543</v>
+        <v>1.332971065310538</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.446231585052642</v>
+        <v>1.322769796336182</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4023,10 +4023,10 @@
         <v>2</v>
       </c>
       <c r="E143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>1.384421139263087</v>
+        <v>1.377913709642831</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.341943945623036</v>
+        <v>1.678788795803029</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.58975480498791</v>
+        <v>1.511992542625869</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.47993081181767</v>
+        <v>1.365847015596037</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.564054341247449</v>
+        <v>1.373227123660009</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.416031680168</v>
+        <v>1.280100808616657</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.622188174555573</v>
+        <v>1.506645919625316</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.26304244412568</v>
+        <v>1.670664070106595</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.447913612240195</v>
+        <v>1.492197746697586</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.683528675329227</v>
+        <v>1.503102671643913</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.474854131481796</v>
+        <v>1.69790330389931</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.423375143879567</v>
+        <v>1.682594049170094</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.814026621965337</v>
+        <v>1.436104853573442</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.446662016903642</v>
+        <v>1.628905750839258</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>1</v>
       </c>
       <c r="F157">
-        <v>1.45525333972486</v>
+        <v>1.551890107540214</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158">
-        <v>1.643574729138273</v>
+        <v>1.46218967793466</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.507401395415298</v>
+        <v>1.295899159606159</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.473718936601905</v>
+        <v>1.403213441137477</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.595976001645561</v>
+        <v>1.470535553741214</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.36275466079987</v>
+        <v>1.554239530731946</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4423,10 +4423,10 @@
         <v>2</v>
       </c>
       <c r="E163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>1.558900862452957</v>
+        <v>1.617289862451008</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.605267726487415</v>
+        <v>1.333738156516422</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="E165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>1.32210788749147</v>
+        <v>1.196849593098768</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.558148850060729</v>
+        <v>1.681315541408349</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.604892373294208</v>
+        <v>1.648671217792403</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.402727872721587</v>
+        <v>1.536589595198409</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.559616424917142</v>
+        <v>1.377987674815291</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.757417671321788</v>
+        <v>1.399416588526308</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.534388358466977</v>
+        <v>1.268047946013897</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.479915087055366</v>
+        <v>1.401665997216117</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.330435571944583</v>
+        <v>1.541510142601979</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.647424523995717</v>
+        <v>1.513883764562586</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.431226588136961</v>
+        <v>1.470509872154083</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176">
-        <v>1.370116512166532</v>
+        <v>1.501055120751894</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.085960373151512</v>
+        <v>1.604273896005528</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.146165048631462</v>
+        <v>1.769005371347487</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>1.462534808854573</v>
+        <v>1.334549775477633</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.252869928169282</v>
+        <v>1.711676997658383</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.394423910165798</v>
+        <v>1.499100409017139</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>1.239740594910177</v>
+        <v>1.451347149702516</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183">
-        <v>1.347107814096991</v>
+        <v>1.376785473608618</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.661157040356217</v>
+        <v>1.490451752204442</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.388568634454698</v>
+        <v>1.185788910565529</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.484564310932418</v>
+        <v>1.816215764273742</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.518060064621471</v>
+        <v>1.545500584885655</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>1.728963796406784</v>
+        <v>1.609864459174641</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.47932608568978</v>
+        <v>1.479041364104086</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.294251221929447</v>
+        <v>1.397464663725493</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4983,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191">
-        <v>1.577252798600347</v>
+        <v>1.482259958173809</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.572858262316257</v>
+        <v>1.511249266741683</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.776902797096398</v>
+        <v>1.514985010672202</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>1.453415016232839</v>
+        <v>1.451842523210572</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.497900605032194</v>
+        <v>1.619798204398338</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.5839267096901</v>
+        <v>1.382372285509889</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>1.717539553205144</v>
+        <v>1.352473717524075</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5123,10 +5123,10 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F198">
-        <v>1.412810337446087</v>
+        <v>1.601510129577853</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.551148942066777</v>
+        <v>1.503904339438931</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>2</v>
+        <v>1.524859219637559</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.595189153698113</v>
+        <v>1.291214764878756</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.550289369729723</v>
+        <v>1.801998075533132</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.492928107525535</v>
+        <v>1.627314513943265</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.521613430846077</v>
+        <v>1.477138047702223</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.434177035512289</v>
+        <v>1.646588267150537</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.589956631692179</v>
+        <v>1.458505630004691</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.493812631298934</v>
+        <v>1.514624083903005</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.469989438630973</v>
+        <v>1.435262982011881</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.433913348049777</v>
+        <v>1.368931019267257</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.428814027450044</v>
+        <v>1.464584405267841</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.480169886556892</v>
+        <v>1.601944929180744</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.489769656429127</v>
+        <v>1.634153683356133</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5423,10 +5423,10 @@
         <v>3</v>
       </c>
       <c r="E213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F213">
-        <v>1.531927861711265</v>
+        <v>1.535302948806058</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.068459467523245</v>
+        <v>1.556188924926448</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.413649352458591</v>
+        <v>1.678340401095339</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.724356217029416</v>
+        <v>1.474902126610321</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>1.4479365358242</v>
+        <v>1.626407412046995</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.29941755716358</v>
+        <v>1.703157790333276</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.247903520923606</v>
+        <v>1.384561392324101</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5563,10 +5563,10 @@
         <v>3</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F220">
-        <v>1.29850161387489</v>
+        <v>1.460098970034262</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F221">
-        <v>1.560195700481489</v>
+        <v>1.706761444033271</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.546158165177469</v>
+        <v>1.503151754339443</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.563265236795022</v>
+        <v>1.57711150535438</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.544072035163618</v>
+        <v>1.715531678605444</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.634264074606956</v>
+        <v>1.442205135849569</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.442534389075289</v>
+        <v>1.542389471606186</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.433362919536098</v>
+        <v>1.412478720655172</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5723,10 +5723,10 @@
         <v>3</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F228">
-        <v>1.531102946352764</v>
+        <v>1.274546022013071</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.494831070538954</v>
+        <v>1.471981308151676</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5763,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F230">
-        <v>1.607949097958323</v>
+        <v>1.463740078912902</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.469492689706585</v>
+        <v>1.711004039009738</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5803,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="E232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>1.464183610611727</v>
+        <v>1.546798930458503</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.355287389344803</v>
+        <v>1.382143138786505</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>1.609009325968574</v>
+        <v>1.476956058391319</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.584210086482879</v>
+        <v>1.322564523774219</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.58024774749456</v>
+        <v>1.594271281777599</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.550582948875121</v>
+        <v>1.409202192241584</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.500496666785504</v>
+        <v>1.436209107297535</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.528116968458998</v>
+        <v>1.554744781196264</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.554353213506591</v>
+        <v>1.134839061955164</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5983,10 +5983,10 @@
         <v>3</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F241">
-        <v>1.199590352460448</v>
+        <v>1.571060500254903</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.564028346130496</v>
+        <v>1.341913624911941</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.698182064591071</v>
+        <v>1.357362971859559</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6043,10 +6043,10 @@
         <v>3</v>
       </c>
       <c r="E244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F244">
-        <v>1.475345516625051</v>
+        <v>1.522970246140282</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.249493287813879</v>
+        <v>1.408967546844655</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.602126767922762</v>
+        <v>1.288803588367737</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.523931422257617</v>
+        <v>1.721690614932975</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.77416872978996</v>
+        <v>1.411352599586469</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6143,10 +6143,10 @@
         <v>3</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F249">
-        <v>1.496280057977038</v>
+        <v>1.476545994404757</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.784288613926414</v>
+        <v>1.393835473573079</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F251">
-        <v>1.422520041689409</v>
+        <v>1.483187677350229</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252">
-        <v>1.225409478939504</v>
+        <v>1.531132483759776</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.685709150668456</v>
+        <v>1.54710121282365</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.403055443693358</v>
+        <v>1.556255715590972</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.205967362938832</v>
+        <v>1.602830486933641</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.435478677106492</v>
+        <v>1.674415576898972</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.268693861354553</v>
+        <v>1.414235066286242</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/25_localizer.xlsx
+++ b/sequences/25_localizer.xlsx
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.991412986437715</v>
+        <v>1.429454290639611</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.496290379132992</v>
+        <v>1.501759511167176</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1.700343696905027</v>
+        <v>1.528019360837766</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.698832929244002</v>
+        <v>1.466654969721308</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.409599585614213</v>
+        <v>1.629625429697201</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1.618168720997231</v>
+        <v>1.663497781328827</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1.456601692155711</v>
+        <v>1.260274343416372</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1.63052014967051</v>
+        <v>1.571474112763566</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.742386894564969</v>
+        <v>1.444705792600529</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.522338777410047</v>
+        <v>1.509306362003453</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.578277986097576</v>
+        <v>1.848500303497213</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1.505624947820141</v>
+        <v>1.625198136752818</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.540271932727262</v>
+        <v>1.43154611940561</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1466,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1.522045079943686</v>
+        <v>1.378774119954351</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.537983250228354</v>
+        <v>1.618113911946432</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.358792208610102</v>
+        <v>1.296790189286493</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.579046376017272</v>
+        <v>1.453052284633778</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.56706789859075</v>
+        <v>1.619394923668284</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.645934156825251</v>
+        <v>1.487670132897058</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.707843973816324</v>
+        <v>1.604873609307296</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1606,7 +1606,7 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>1.397043377114492</v>
+        <v>1.435108155699947</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.652876960887446</v>
+        <v>1.588050421175305</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1.557435878263066</v>
+        <v>1.376444857753677</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.548725462690615</v>
+        <v>1.471247239880019</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.315496299706473</v>
+        <v>1.388150787464667</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.402822209489571</v>
+        <v>1.521736275261392</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.637913140252933</v>
+        <v>1.508214049474504</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.374935645014615</v>
+        <v>1.529700655934215</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.392995522595754</v>
+        <v>1.541252312192698</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.618770174350258</v>
+        <v>1.4826781005115</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.230211381486532</v>
+        <v>1.457056401894333</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.286635722124684</v>
+        <v>1.551855585840012</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.278795641715585</v>
+        <v>1.417765580811076</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.299382829209125</v>
+        <v>1.508599370824407</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.496559041736289</v>
+        <v>1.372169723022376</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.612017519964283</v>
+        <v>1.495901683322215</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.660892186372186</v>
+        <v>1.499449503144406</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.459539322376072</v>
+        <v>1.449860990565194</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.544497300655208</v>
+        <v>1.557263592524101</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.539578824102568</v>
+        <v>1.539673479086895</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.751434828692026</v>
+        <v>1.231039087434353</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.37252212333202</v>
+        <v>1.386721650219015</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.487326481927862</v>
+        <v>1.135310992916655</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.429371270744094</v>
+        <v>1.339219320962096</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>1.827918703089118</v>
+        <v>1.417035401038174</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.586041210965073</v>
+        <v>1.473438264311886</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.489903207604762</v>
+        <v>1.209781498975411</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.709475366478961</v>
+        <v>1.691665823232757</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>1.764596281810275</v>
+        <v>1.518814837336534</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.560525837694121</v>
+        <v>1.519812483116807</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.237003020962417</v>
+        <v>1.540272454703373</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.467898213422964</v>
+        <v>1.738008321391529</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>1.516294311019965</v>
+        <v>1.848817823487038</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>1.519259116951128</v>
+        <v>1.570855211514681</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>1.327048303155611</v>
+        <v>1.492914284423508</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.499183029720122</v>
+        <v>1.481991722016853</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.183104464458906</v>
+        <v>1.554051269664563</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2343,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>1.284368336335417</v>
+        <v>1.283818918666989</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.80390750486702</v>
+        <v>1.472578952703917</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.252349308846522</v>
+        <v>1.28795049939843</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.4648221313228</v>
+        <v>1.345109323918728</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.239707304659218</v>
+        <v>1.439689001997855</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.450327618045092</v>
+        <v>1.456196379573186</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.424739682245473</v>
+        <v>1.469440600711249</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.22217941331542</v>
+        <v>1.562271643155398</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.543232509345169</v>
+        <v>1.594984925618419</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2523,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>1.411172954117264</v>
+        <v>1.682760289477506</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.332226315886535</v>
+        <v>1.551263176924931</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.568720352830891</v>
+        <v>1.56923728370801</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.497735798235522</v>
+        <v>1.496068285012727</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.638225854363239</v>
+        <v>1.487632498281048</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.710290567286353</v>
+        <v>1.543364667244318</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.44452817323106</v>
+        <v>1.422030954707956</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.452393967433763</v>
+        <v>1.61046277859958</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2683,10 +2683,10 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>1.343167729151846</v>
+        <v>1.489949790526569</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2703,10 +2703,10 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>1.670277005269108</v>
+        <v>1.500586055917826</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>1.497189107617971</v>
+        <v>1.64803684863045</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.567039845943361</v>
+        <v>1.519508201167288</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.564431196603304</v>
+        <v>1.287745151739478</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2783,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>1.608855628049331</v>
+        <v>1.483837066634829</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.492763944015825</v>
+        <v>1.650921271861164</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.409013825755726</v>
+        <v>1.579111085831409</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.471923504397189</v>
+        <v>1.269429705625866</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>1.508026880796626</v>
+        <v>1.690789693930964</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.517914007055042</v>
+        <v>1.470274036214517</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.631299028307885</v>
+        <v>1.506382643226996</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.237871266226301</v>
+        <v>1.5657111100298</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.222619153499236</v>
+        <v>1.269122661365189</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>1.425407447819268</v>
+        <v>1.604510427546018</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.501555412842011</v>
+        <v>1.634434501441717</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.535894425076282</v>
+        <v>1.632307569732264</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.530015806859113</v>
+        <v>1.597655366246528</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.208865160386657</v>
+        <v>1.318803205586459</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.544020605354519</v>
+        <v>1.680230356593051</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.644640486605706</v>
+        <v>1.141591514549169</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.285599379909281</v>
+        <v>1.612272230502693</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.280715687270957</v>
+        <v>1.359337899348417</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.338797806783474</v>
+        <v>1.321738940925721</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>1.49642361296308</v>
+        <v>1.355044224758527</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.294738678280182</v>
+        <v>1.211201376408473</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.582021710039627</v>
+        <v>1.808996344427526</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>1</v>
       </c>
       <c r="F103">
-        <v>1.603847286291436</v>
+        <v>1.717931684712877</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.657813758004644</v>
+        <v>1.518860960315928</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105">
-        <v>1.382471911351705</v>
+        <v>1.348023332288801</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.785189994565065</v>
+        <v>1.63251975617902</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.686117983799774</v>
+        <v>1.318792520972637</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.793413927969267</v>
+        <v>1.834730397468019</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.497362110941392</v>
+        <v>1.495773749068193</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.652053911608793</v>
+        <v>1.523855543660186</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3383,10 +3383,10 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>1.49016205276481</v>
+        <v>1.310719646039761</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3403,10 +3403,10 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112">
-        <v>1.381296149427863</v>
+        <v>1.535450424192493</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.514519303728374</v>
+        <v>1.48493587171614</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.400016791930044</v>
+        <v>1.661520869054759</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3463,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>1.472770115794541</v>
+        <v>1.550143832507385</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.540224653600957</v>
+        <v>1.362945091222818</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.41715216553444</v>
+        <v>1.89892497808316</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.742503374765807</v>
+        <v>1.332293266513825</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.428117586986297</v>
+        <v>1.576371081807777</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.513144881525207</v>
+        <v>1.584507514088382</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.358620135203936</v>
+        <v>1.825918964366904</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.523486549095503</v>
+        <v>1.41756582174086</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>1.429952368792247</v>
+        <v>1.455401950453803</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.791976389155514</v>
+        <v>1.685002155121096</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.62710880373431</v>
+        <v>1.233837300099839</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126">
-        <v>1.276788412569275</v>
+        <v>1.492569949874743</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.608957730200403</v>
+        <v>1.622235490545773</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.677530938710501</v>
+        <v>1.362624047676267</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.590026564528695</v>
+        <v>1.609790498185119</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.095168947837643</v>
+        <v>1.313008039666061</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3783,10 +3783,10 @@
         <v>2</v>
       </c>
       <c r="E131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>1.377369450452276</v>
+        <v>1.537117917805765</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.662554767263043</v>
+        <v>1.510866029799096</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.517764224813504</v>
+        <v>1.587432493697434</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3843,10 +3843,10 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134">
-        <v>1.479345237246699</v>
+        <v>1.441363141838149</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.81798182351145</v>
+        <v>1.491409304114671</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.511549635551223</v>
+        <v>1.368097482390436</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3903,10 +3903,10 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>1.488369863143982</v>
+        <v>1.677175442408933</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>1.60003643925875</v>
+        <v>1.485651277710719</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.508014038661521</v>
+        <v>1.468894729035487</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.396576243753742</v>
+        <v>1.37035765183217</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3983,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141">
-        <v>1.332971065310538</v>
+        <v>1.588490755271261</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.322769796336182</v>
+        <v>1.745423052193047</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.377913709642831</v>
+        <v>1.450191519460471</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.678788795803029</v>
+        <v>1.822097010854346</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.511992542625869</v>
+        <v>1.495963119930816</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.365847015596037</v>
+        <v>1.394483614806665</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.373227123660009</v>
+        <v>1.3249328230639</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.280100808616657</v>
+        <v>1.246620140444058</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.506645919625316</v>
+        <v>1.239579445384038</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4163,10 +4163,10 @@
         <v>2</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150">
-        <v>1.670664070106595</v>
+        <v>1.886467164718109</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.492197746697586</v>
+        <v>1.801087258648363</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.503102671643913</v>
+        <v>1.737854541630254</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.69790330389931</v>
+        <v>1.314820968639617</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.682594049170094</v>
+        <v>1.645110817342738</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.436104853573442</v>
+        <v>1.483135695181656</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.628905750839258</v>
+        <v>1.363647573423639</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4303,10 +4303,10 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>1.551890107540214</v>
+        <v>1.528440989167849</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>1.46218967793466</v>
+        <v>1.571427120899162</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.295899159606159</v>
+        <v>1.707123977874074</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.403213441137477</v>
+        <v>1.539858916795749</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.470535553741214</v>
+        <v>1.620830021316205</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.554239530731946</v>
+        <v>1.353573612276235</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.617289862451008</v>
+        <v>1.718771732409944</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4443,10 +4443,10 @@
         <v>2</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164">
-        <v>1.333738156516422</v>
+        <v>1.458305798162955</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165">
-        <v>1.196849593098768</v>
+        <v>1.670484559061785</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.681315541408349</v>
+        <v>1.406816525205777</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.648671217792403</v>
+        <v>1.675282081423467</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.536589595198409</v>
+        <v>1.631377413885208</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169">
-        <v>1.377987674815291</v>
+        <v>1.499432623455734</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.399416588526308</v>
+        <v>1.562190640969828</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.268047946013897</v>
+        <v>1.563008188090832</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.401665997216117</v>
+        <v>1.544454067291646</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.541510142601979</v>
+        <v>1.698052678463172</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.513883764562586</v>
+        <v>1.772127838286362</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.470509872154083</v>
+        <v>1.425591433371997</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>1.501055120751894</v>
+        <v>1.595381197101636</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.604273896005528</v>
+        <v>1.858000947811902</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.769005371347487</v>
+        <v>1.472081070715805</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179">
-        <v>1.334549775477633</v>
+        <v>1.83195217762682</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.711676997658383</v>
+        <v>1.40665182005137</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.499100409017139</v>
+        <v>1.610075742436427</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.451347149702516</v>
+        <v>1.51954262161573</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4826,7 +4826,7 @@
         <v>1</v>
       </c>
       <c r="F183">
-        <v>1.376785473608618</v>
+        <v>1.443092293956016</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.490451752204442</v>
+        <v>1.396587629725027</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.185788910565529</v>
+        <v>1.423172711182495</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.816215764273742</v>
+        <v>1.798254324948974</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.545500584885655</v>
+        <v>1.302154562938555</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.609864459174641</v>
+        <v>1.324666594810959</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.479041364104086</v>
+        <v>1.229774634748712</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.397464663725493</v>
+        <v>1.481273868338239</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4983,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="E191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>1.482259958173809</v>
+        <v>1.784114275611979</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.511249266741683</v>
+        <v>1.566395342792747</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.514985010672202</v>
+        <v>1.250263924614295</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.451842523210572</v>
+        <v>1.414841745594061</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.619798204398338</v>
+        <v>1.593919182423419</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.382372285509889</v>
+        <v>1.373125199253876</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.352473717524075</v>
+        <v>1.400075561126731</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.601510129577853</v>
+        <v>1.405595013913186</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.503904339438931</v>
+        <v>1.543361156276812</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.524859219637559</v>
+        <v>1.057347579903198</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.291214764878756</v>
+        <v>1.667556848537357</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.801998075533132</v>
+        <v>1.270206355614251</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5223,10 +5223,10 @@
         <v>3</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203">
-        <v>1.627314513943265</v>
+        <v>1.081435203182085</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.477138047702223</v>
+        <v>1.289639024240971</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.646588267150537</v>
+        <v>1.43885541022751</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.458505630004691</v>
+        <v>1.66377119807957</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.514624083903005</v>
+        <v>1.490736283490725</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.435262982011881</v>
+        <v>1.309977297634935</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.368931019267257</v>
+        <v>1.629240631565954</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.464584405267841</v>
+        <v>1.721331822210858</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211">
-        <v>1.601944929180744</v>
+        <v>1.593724584353239</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.634153683356133</v>
+        <v>1.543245901732644</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.535302948806058</v>
+        <v>1.238313917572976</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.556188924926448</v>
+        <v>1.407913370078929</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.678340401095339</v>
+        <v>1.516778545201244</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.474902126610321</v>
+        <v>1.412918032993671</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.626407412046995</v>
+        <v>1.566779748192753</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F218">
-        <v>1.703157790333276</v>
+        <v>1.330069385780483</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.384561392324101</v>
+        <v>1.424400375785366</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5563,10 +5563,10 @@
         <v>3</v>
       </c>
       <c r="E220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F220">
-        <v>1.460098970034262</v>
+        <v>1.362714583088826</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F221">
-        <v>1.706761444033271</v>
+        <v>1.333047988772963</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.503151754339443</v>
+        <v>1.496141440695882</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.57711150535438</v>
+        <v>1.634106110186055</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F224">
-        <v>1.715531678605444</v>
+        <v>1.63619327045615</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.442205135849569</v>
+        <v>1.567507953687071</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.542389471606186</v>
+        <v>1.609329801893467</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.412478720655172</v>
+        <v>1.403492386453866</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5723,10 +5723,10 @@
         <v>3</v>
       </c>
       <c r="E228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F228">
-        <v>1.274546022013071</v>
+        <v>1.484278159478725</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.471981308151676</v>
+        <v>1.459566764377563</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5763,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F230">
-        <v>1.463740078912902</v>
+        <v>1.786547798649086</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231">
-        <v>1.711004039009738</v>
+        <v>1.334008924766985</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.546798930458503</v>
+        <v>1.485204117703493</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5823,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F233">
-        <v>1.382143138786505</v>
+        <v>1.760794374126107</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F234">
-        <v>1.476956058391319</v>
+        <v>1.449202242649975</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.322564523774219</v>
+        <v>1.533070951702864</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.594271281777599</v>
+        <v>1.669773482298181</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.409202192241584</v>
+        <v>1.357538092106388</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.436209107297535</v>
+        <v>1.521543431946519</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.554744781196264</v>
+        <v>1.40473450720459</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.134839061955164</v>
+        <v>1.644334378324729</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5983,10 +5983,10 @@
         <v>3</v>
       </c>
       <c r="E241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F241">
-        <v>1.571060500254903</v>
+        <v>1.475788138433951</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.341913624911941</v>
+        <v>1.460605124358011</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.357362971859559</v>
+        <v>1.251928213508638</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6043,10 +6043,10 @@
         <v>3</v>
       </c>
       <c r="E244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F244">
-        <v>1.522970246140282</v>
+        <v>1.261343076510323</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.408967546844655</v>
+        <v>1.611286894334169</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6083,10 +6083,10 @@
         <v>3</v>
       </c>
       <c r="E246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F246">
-        <v>1.288803588367737</v>
+        <v>1.51048363917907</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.721690614932975</v>
+        <v>1.756900852533514</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.411352599586469</v>
+        <v>1.640973421425303</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6143,10 +6143,10 @@
         <v>3</v>
       </c>
       <c r="E249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F249">
-        <v>1.476545994404757</v>
+        <v>1.629656317850549</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.393835473573079</v>
+        <v>1.747294798000246</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.483187677350229</v>
+        <v>1.478516520581639</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F252">
-        <v>1.531132483759776</v>
+        <v>1.511078524434593</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.54710121282365</v>
+        <v>1.379697069699768</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.556255715590972</v>
+        <v>1.370008916758311</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.602830486933641</v>
+        <v>1.690784996509621</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.674415576898972</v>
+        <v>1.587514644975857</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.414235066286242</v>
+        <v>1.370416058748616</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/25_localizer.xlsx
+++ b/sequences/25_localizer.xlsx
@@ -34,781 +34,781 @@
     <t>face</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>flower</t>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
   </si>
   <si>
     <t>face/face040.jpg</t>
   </si>
   <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
     <t>face/face045.jpg</t>
   </si>
   <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
   </si>
   <si>
     <t>flower/flower041.jpg</t>
   </si>
   <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
   </si>
   <si>
     <t>face/face042.jpg</t>
   </si>
   <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
     <t>face/face037.jpg</t>
   </si>
   <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
   </si>
   <si>
     <t>face/face061.jpg</t>
   </si>
   <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
   </si>
   <si>
     <t>dog/dog055.jpg</t>
   </si>
   <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
     <t>face/face063.jpg</t>
   </si>
   <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
   </si>
   <si>
     <t>dog/dog074.jpg</t>
   </si>
   <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
   </si>
   <si>
     <t>face/face069.jpg</t>
   </si>
   <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
     <t>face/face076.jpg</t>
   </si>
   <si>
-    <t>house/house073.jpg</t>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
   </si>
   <si>
     <t>flower/flower072.jpg</t>
   </si>
   <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
+    <t>house/house072.jpg</t>
   </si>
   <si>
     <t>flower/flower079.jpg</t>
   </si>
   <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
   </si>
   <si>
     <t>face/face072.jpg</t>
   </si>
   <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
     <t>face/face074.jpg</t>
   </si>
   <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
   </si>
   <si>
     <t>face/face088.jpg</t>
   </si>
   <si>
-    <t>face/face090.jpg</t>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
   </si>
   <si>
     <t>face/face087.jpg</t>
   </si>
   <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
     <t>flower/flower094.jpg</t>
   </si>
   <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
   </si>
   <si>
     <t>face/face084.jpg</t>
   </si>
   <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
   </si>
   <si>
     <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.429454290639611</v>
+        <v>1.483417124998374</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.501759511167176</v>
+        <v>1.493662294053975</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1.528019360837766</v>
+        <v>1.592798929551871</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.466654969721308</v>
+        <v>1.36738334925141</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.629625429697201</v>
+        <v>1.393637000812152</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1.663497781328827</v>
+        <v>1.421330059486142</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1.260274343416372</v>
+        <v>1.672967980443394</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.571474112763566</v>
+        <v>1.286953937944044</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.444705792600529</v>
+        <v>1.539734061717168</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1383,10 +1383,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1.509306362003453</v>
+        <v>1.6915890144765</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.848500303497213</v>
+        <v>1.677972096340934</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1.625198136752818</v>
+        <v>1.673470578665569</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.43154611940561</v>
+        <v>1.625892093039753</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1.378774119954351</v>
+        <v>1.269361670900443</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1.618113911946432</v>
+        <v>1.465390189722685</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.296790189286493</v>
+        <v>1.510623455415387</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.453052284633778</v>
+        <v>1.423612537555583</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.619394923668284</v>
+        <v>1.552945968890243</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.487670132897058</v>
+        <v>1.430697346061008</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.604873609307296</v>
+        <v>1.19544393339486</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>1.435108155699947</v>
+        <v>1.547156434731571</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.588050421175305</v>
+        <v>1.709515292699787</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1.376444857753677</v>
+        <v>1.386810657005828</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.471247239880019</v>
+        <v>1.333711846775413</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.388150787464667</v>
+        <v>1.447612518236065</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.521736275261392</v>
+        <v>1.387535012122785</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1723,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1.508214049474504</v>
+        <v>1.412802103516287</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.529700655934215</v>
+        <v>1.474530324198145</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1.541252312192698</v>
+        <v>1.58601500433815</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.4826781005115</v>
+        <v>1.455960799660921</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.457056401894333</v>
+        <v>1.454268980084612</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.551855585840012</v>
+        <v>1.658559319259958</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.417765580811076</v>
+        <v>1.359851243805025</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.508599370824407</v>
+        <v>1.342338929900544</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.372169723022376</v>
+        <v>1.724676527705072</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.495901683322215</v>
+        <v>1.434297822265238</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.499449503144406</v>
+        <v>1.487235737102826</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.449860990565194</v>
+        <v>1.72726239642408</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.557263592524101</v>
+        <v>1.545104951944357</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.539673479086895</v>
+        <v>1.339550400781332</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.231039087434353</v>
+        <v>1.434034421662793</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.386721650219015</v>
+        <v>1.353840104103825</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.135310992916655</v>
+        <v>1.603797196189759</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>1.339219320962096</v>
+        <v>1.593074800582169</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.417035401038174</v>
+        <v>1.306520627904194</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.473438264311886</v>
+        <v>1.467387175241558</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.209781498975411</v>
+        <v>1.232860849553058</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>1.691665823232757</v>
+        <v>1.64537169978804</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.518814837336534</v>
+        <v>1.469266762230734</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.519812483116807</v>
+        <v>1.455548125839692</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.540272454703373</v>
+        <v>1.413394675164642</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.738008321391529</v>
+        <v>1.396927099171968</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>1.848817823487038</v>
+        <v>1.471234177681767</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>1.570855211514681</v>
+        <v>1.092222195060655</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.492914284423508</v>
+        <v>1.444648336520792</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.481991722016853</v>
+        <v>1.618889500974743</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.554051269664563</v>
+        <v>1.559603833318852</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2343,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>1.283818918666989</v>
+        <v>1.705246988138341</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.472578952703917</v>
+        <v>1.552940530265693</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.28795049939843</v>
+        <v>1.682666780592725</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.345109323918728</v>
+        <v>1.415380370489775</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.439689001997855</v>
+        <v>1.193066382889153</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.456196379573186</v>
+        <v>1.644838106929517</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.469440600711249</v>
+        <v>1.371256902024701</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.562271643155398</v>
+        <v>1.655611065982403</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.594984925618419</v>
+        <v>1.831759682451073</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2523,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>1.682760289477506</v>
+        <v>1.660212069467871</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.551263176924931</v>
+        <v>1.561776823941147</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.56923728370801</v>
+        <v>1.371342998029969</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.496068285012727</v>
+        <v>1.39021345306175</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.487632498281048</v>
+        <v>1.683736742541381</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.543364667244318</v>
+        <v>1.674320505337325</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.422030954707956</v>
+        <v>1.624856750172442</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.61046277859958</v>
+        <v>1.364898556353836</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.489949790526569</v>
+        <v>1.888450598431079</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.500586055917826</v>
+        <v>1.400954499323258</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>1.64803684863045</v>
+        <v>1.632218966267474</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.519508201167288</v>
+        <v>1.817639952858914</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.287745151739478</v>
+        <v>1.485967590515764</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2783,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>1.483837066634829</v>
+        <v>1.536030649079501</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.650921271861164</v>
+        <v>1.305069078216877</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.579111085831409</v>
+        <v>1.654239110469434</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.269429705625866</v>
+        <v>1.515263229755736</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.690789693930964</v>
+        <v>1.945152569379921</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.470274036214517</v>
+        <v>1.513991502922959</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.506382643226996</v>
+        <v>1.756339042096353</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.5657111100298</v>
+        <v>1.580425377879071</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.269122661365189</v>
+        <v>1.407220530333687</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>1.604510427546018</v>
+        <v>1.39836614744807</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.634434501441717</v>
+        <v>1.311786475769961</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.632307569732264</v>
+        <v>1.415842196858417</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.597655366246528</v>
+        <v>1.304042657281134</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>1.318803205586459</v>
+        <v>1.747401843725415</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.680230356593051</v>
+        <v>1.398623752957562</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.141591514549169</v>
+        <v>1.606838177939143</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.612272230502693</v>
+        <v>1.641949336558706</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.359337899348417</v>
+        <v>1.617990949211642</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3143,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99">
-        <v>1.321738940925721</v>
+        <v>1.609451866158085</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>1.355044224758527</v>
+        <v>1.481632591251743</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101">
-        <v>1.211201376408473</v>
+        <v>1.503284491561108</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.808996344427526</v>
+        <v>1.599556402097172</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3223,10 +3223,10 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>1.717931684712877</v>
+        <v>1.505501165371412</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.518860960315928</v>
+        <v>1.200841457442906</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>1.348023332288801</v>
+        <v>1.396252747087724</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.63251975617902</v>
+        <v>1.607429571260535</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.318792520972637</v>
+        <v>1.467010190763269</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.834730397468019</v>
+        <v>1.589218076136377</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.495773749068193</v>
+        <v>1.561102080580262</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.523855543660186</v>
+        <v>1.281499881344603</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.310719646039761</v>
+        <v>1.464890766122738</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>1</v>
       </c>
       <c r="F112">
-        <v>1.535450424192493</v>
+        <v>1.515220037398562</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3423,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113">
-        <v>1.48493587171614</v>
+        <v>1.828036620382925</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.661520869054759</v>
+        <v>1.492666100252009</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.550143832507385</v>
+        <v>1.524363201334708</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116">
-        <v>1.362945091222818</v>
+        <v>1.596677378809031</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.89892497808316</v>
+        <v>1.566390436313149</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.332293266513825</v>
+        <v>1.401258614970241</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.576371081807777</v>
+        <v>1.53971960161488</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.584507514088382</v>
+        <v>1.39567699963548</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.825918964366904</v>
+        <v>1.402613382962477</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.41756582174086</v>
+        <v>1.439115118421357</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.455401950453803</v>
+        <v>1.81189952644243</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.685002155121096</v>
+        <v>1.712167138142025</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125">
-        <v>1.233837300099839</v>
+        <v>1.355291089515529</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>1.492569949874743</v>
+        <v>1.15234254113025</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.622235490545773</v>
+        <v>1.70000848518791</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.362624047676267</v>
+        <v>1.654209095289109</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.609790498185119</v>
+        <v>1.48296696873392</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.313008039666061</v>
+        <v>1.669282984628853</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.537117917805765</v>
+        <v>1.31704277497027</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.510866029799096</v>
+        <v>1.326376787509913</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.587432493697434</v>
+        <v>1.724080856551547</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3843,10 +3843,10 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>1.441363141838149</v>
+        <v>1.531771725402201</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.491409304114671</v>
+        <v>1.368982076684509</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.368097482390436</v>
+        <v>1.320980479336147</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.677175442408933</v>
+        <v>1.398570665794354</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.485651277710719</v>
+        <v>1.641751416734893</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.468894729035487</v>
+        <v>1.564230506565648</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140">
-        <v>1.37035765183217</v>
+        <v>1.695459411711741</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3983,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>1.588490755271261</v>
+        <v>1.564207642338106</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.745423052193047</v>
+        <v>1.573731890486565</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.450191519460471</v>
+        <v>1.368173712859726</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.822097010854346</v>
+        <v>1.625414972855988</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.495963119930816</v>
+        <v>1.516293292569043</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.394483614806665</v>
+        <v>1.440477069699784</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.3249328230639</v>
+        <v>1.391441900730486</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.246620140444058</v>
+        <v>1.462575253890475</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.239579445384038</v>
+        <v>1.391103839876397</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>1</v>
       </c>
       <c r="F150">
-        <v>1.886467164718109</v>
+        <v>1.492406276168221</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.801087258648363</v>
+        <v>1.648182493076309</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.737854541630254</v>
+        <v>1.630011071361799</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.314820968639617</v>
+        <v>1.753017326890336</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154">
-        <v>1.645110817342738</v>
+        <v>1.469577109466396</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.483135695181656</v>
+        <v>1.609765766128569</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.363647573423639</v>
+        <v>1.365210843883949</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.528440989167849</v>
+        <v>1.21272739251262</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.571427120899162</v>
+        <v>1.286468237523255</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.707123977874074</v>
+        <v>1.511026485632807</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.539858916795749</v>
+        <v>1.471010345888024</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.620830021316205</v>
+        <v>1.387855192955178</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4403,10 +4403,10 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162">
-        <v>1.353573612276235</v>
+        <v>1.48358666598835</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.718771732409944</v>
+        <v>1.58284101350712</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4443,10 +4443,10 @@
         <v>2</v>
       </c>
       <c r="E164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>1.458305798162955</v>
+        <v>1.558578427012734</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="E165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>1.670484559061785</v>
+        <v>1.566745923895888</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.406816525205777</v>
+        <v>1.579322537030988</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.675282081423467</v>
+        <v>1.416636946143612</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.631377413885208</v>
+        <v>1.368933010505013</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>1.499432623455734</v>
+        <v>1.646398279987028</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.562190640969828</v>
+        <v>1.590772846831847</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.563008188090832</v>
+        <v>1.459067252029344</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.544454067291646</v>
+        <v>1.230823029353836</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.698052678463172</v>
+        <v>1.534437765147482</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.772127838286362</v>
+        <v>1.589424690955542</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4663,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175">
-        <v>1.425591433371997</v>
+        <v>1.547013794315323</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.595381197101636</v>
+        <v>1.073829445894416</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.858000947811902</v>
+        <v>1.220677062576679</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.472081070715805</v>
+        <v>1.49228568718066</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F179">
-        <v>1.83195217762682</v>
+        <v>1.425330464005341</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.40665182005137</v>
+        <v>1.51617610673884</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.610075742436427</v>
+        <v>1.50027966864813</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.51954262161573</v>
+        <v>1.254323824466008</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>1.443092293956016</v>
+        <v>1.526025639905669</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.396587629725027</v>
+        <v>1.753115139119023</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.423172711182495</v>
+        <v>1.666135986300396</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.798254324948974</v>
+        <v>1.393192355187742</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187">
-        <v>1.302154562938555</v>
+        <v>1.510259341248699</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188">
-        <v>1.324666594810959</v>
+        <v>1.501600845158636</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.229774634748712</v>
+        <v>1.26780973457713</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.481273868338239</v>
+        <v>1.492563911433693</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.784114275611979</v>
+        <v>1.530433081516177</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.566395342792747</v>
+        <v>1.276295301976175</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.250263924614295</v>
+        <v>1.410801117103849</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.414841745594061</v>
+        <v>1.414701331236359</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195">
-        <v>1.593919182423419</v>
+        <v>1.256178032550288</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5083,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196">
-        <v>1.373125199253876</v>
+        <v>1.239460555909002</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197">
-        <v>1.400075561126731</v>
+        <v>1.445034036225565</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.405595013913186</v>
+        <v>1.412380868959455</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.543361156276812</v>
+        <v>1.559134122845019</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.057347579903198</v>
+        <v>1.459823391977094</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.667556848537357</v>
+        <v>1.519214723103678</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.270206355614251</v>
+        <v>1.312795667734366</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5223,10 +5223,10 @@
         <v>3</v>
       </c>
       <c r="E203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F203">
-        <v>1.081435203182085</v>
+        <v>1.546976514186207</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.289639024240971</v>
+        <v>1.404933680648535</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.43885541022751</v>
+        <v>1.303702392294709</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.66377119807957</v>
+        <v>1.257202619480844</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.490736283490725</v>
+        <v>1.480402277975001</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.309977297634935</v>
+        <v>1.647563667682982</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.629240631565954</v>
+        <v>1.658777710135387</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.721331822210858</v>
+        <v>1.35891905669181</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>1.593724584353239</v>
+        <v>1.665827265515855</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.543245901732644</v>
+        <v>1.514472520863722</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.238313917572976</v>
+        <v>1.487075747973278</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.407913370078929</v>
+        <v>1.457853210393471</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.516778545201244</v>
+        <v>1.414578778496706</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.412918032993671</v>
+        <v>1.51491051979429</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.566779748192753</v>
+        <v>1.501395432803884</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>1.330069385780483</v>
+        <v>1.351954405909851</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.424400375785366</v>
+        <v>1.265173737177742</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.362714583088826</v>
+        <v>1.496849271250985</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.333047988772963</v>
+        <v>1.638426104263545</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.496141440695882</v>
+        <v>1.422531993879259</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.634106110186055</v>
+        <v>1.428572623987091</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F224">
-        <v>1.63619327045615</v>
+        <v>1.557502903467113</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.567507953687071</v>
+        <v>1.576065262551436</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226">
-        <v>1.609329801893467</v>
+        <v>1.259197176024958</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.403492386453866</v>
+        <v>1.689899183770219</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.484278159478725</v>
+        <v>1.589721121542811</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.459566764377563</v>
+        <v>1.632670459575397</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5763,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F230">
-        <v>1.786547798649086</v>
+        <v>1.812910151294187</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5786,7 +5786,7 @@
         <v>1</v>
       </c>
       <c r="F231">
-        <v>1.334008924766985</v>
+        <v>1.577700030224341</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.485204117703493</v>
+        <v>1.41258314569419</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5823,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="E233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F233">
-        <v>1.760794374126107</v>
+        <v>1.4992405191611</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>1.449202242649975</v>
+        <v>1.517293825856714</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.533070951702864</v>
+        <v>1.75297878528194</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.669773482298181</v>
+        <v>1.304729045680213</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.357538092106388</v>
+        <v>1.412464231620052</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.521543431946519</v>
+        <v>1.422364791123621</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.40473450720459</v>
+        <v>1.33925426581006</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.644334378324729</v>
+        <v>1.56351389490727</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.475788138433951</v>
+        <v>1.426667827735342</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.460605124358011</v>
+        <v>1.498147166864395</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.251928213508638</v>
+        <v>1.352074031421692</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.261343076510323</v>
+        <v>1.372931534875501</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.611286894334169</v>
+        <v>1.677376284888071</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6083,10 +6083,10 @@
         <v>3</v>
       </c>
       <c r="E246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F246">
-        <v>1.51048363917907</v>
+        <v>1.459518188387554</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6103,10 +6103,10 @@
         <v>3</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F247">
-        <v>1.756900852533514</v>
+        <v>1.516331846674587</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.640973421425303</v>
+        <v>1.306051015679176</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.629656317850549</v>
+        <v>1.583809041663401</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.747294798000246</v>
+        <v>1.437179937528975</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.478516520581639</v>
+        <v>1.538927010873792</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.511078524434593</v>
+        <v>1.605846404399902</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.379697069699768</v>
+        <v>1.466430798037065</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.370008916758311</v>
+        <v>1.588314995287097</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.690784996509621</v>
+        <v>1.625950668177538</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.587514644975857</v>
+        <v>1.596657263583733</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F257">
-        <v>1.370416058748616</v>
+        <v>1.241178007146925</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/25_localizer.xlsx
+++ b/sequences/25_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>dog</t>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
   </si>
   <si>
     <t>face/face044.jpg</t>
   </si>
   <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
   </si>
   <si>
     <t>face/face033.jpg</t>
   </si>
   <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
+    <t>flower/flower034.jpg</t>
   </si>
   <si>
     <t>flower/flower037.jpg</t>
   </si>
   <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
     <t>flower/flower043.jpg</t>
   </si>
   <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
   </si>
   <si>
     <t>dog/dog032.jpg</t>
   </si>
   <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
     <t>house/house043.jpg</t>
   </si>
   <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
   </si>
   <si>
     <t>flower/flower050.jpg</t>
   </si>
   <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
     <t>flower/flower060.jpg</t>
   </si>
   <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
   </si>
   <si>
     <t>flower/flower055.jpg</t>
   </si>
   <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
     <t>face/face052.jpg</t>
   </si>
   <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
+    <t>dog/dog063.jpg</t>
   </si>
   <si>
     <t>face/face055.jpg</t>
   </si>
   <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
   </si>
   <si>
     <t>flower/flower066.jpg</t>
   </si>
   <si>
-    <t>face/face070.jpg</t>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
   </si>
   <si>
     <t>face/face079.jpg</t>
   </si>
   <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
     <t>dog/dog069.jpg</t>
   </si>
   <si>
-    <t>house/house068.jpg</t>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
   </si>
   <si>
     <t>flower/flower069.jpg</t>
   </si>
   <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
     <t>face/face066.jpg</t>
   </si>
   <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
     <t>flower/flower073.jpg</t>
   </si>
   <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
   </si>
   <si>
     <t>house/house087.jpg</t>
   </si>
   <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
     <t>dog/dog088.jpg</t>
   </si>
   <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
     <t>house/house085.jpg</t>
   </si>
   <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
     <t>dog/dog083.jpg</t>
   </si>
   <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
     <t>dog/dog084.jpg</t>
   </si>
   <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
     <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.483417124998374</v>
+        <v>1.560884962896441</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.493662294053975</v>
+        <v>1.498301790854888</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1.592798929551871</v>
+        <v>1.674548272103761</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1.36738334925141</v>
+        <v>1.755017180317696</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.393637000812152</v>
+        <v>1.517793756320596</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.421330059486142</v>
+        <v>1.502095147886999</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.672967980443394</v>
+        <v>1.433953376633384</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.286953937944044</v>
+        <v>1.53578702873965</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.539734061717168</v>
+        <v>1.71767029265997</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1.6915890144765</v>
+        <v>1.44306963519693</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.677972096340934</v>
+        <v>1.507374292930761</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1.673470578665569</v>
+        <v>1.422108223025122</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.625892093039753</v>
+        <v>1.462036709651187</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.269361670900443</v>
+        <v>1.524970510545181</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>1.465390189722685</v>
+        <v>1.54903352216747</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1503,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1.510623455415387</v>
+        <v>1.70820994861244</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.423612537555583</v>
+        <v>1.377678772280855</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.552945968890243</v>
+        <v>1.488538125394913</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.430697346061008</v>
+        <v>1.569997275516356</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.19544393339486</v>
+        <v>1.610050652607748</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1.547156434731571</v>
+        <v>1.442769084736561</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.709515292699787</v>
+        <v>1.513629485786555</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.386810657005828</v>
+        <v>1.372135564852246</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.333711846775413</v>
+        <v>1.437631001653058</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.447612518236065</v>
+        <v>1.54216911968453</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.387535012122785</v>
+        <v>1.459339138498</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1723,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>1.412802103516287</v>
+        <v>1.348459592999713</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.474530324198145</v>
+        <v>1.193915936855028</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>1.58601500433815</v>
+        <v>1.644214785088997</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1.455960799660921</v>
+        <v>1.541094156886383</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.454268980084612</v>
+        <v>1.489095896154415</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.658559319259958</v>
+        <v>1.646391970579413</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.359851243805025</v>
+        <v>1.385897298896013</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1.342338929900544</v>
+        <v>1.637533790254672</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.724676527705072</v>
+        <v>1.420671619624664</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.434297822265238</v>
+        <v>1.28729710993328</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.487235737102826</v>
+        <v>1.493462739006992</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.72726239642408</v>
+        <v>1.427754133375611</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.545104951944357</v>
+        <v>1.583615609320888</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.339550400781332</v>
+        <v>1.568800514679273</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.434034421662793</v>
+        <v>1.322622765429897</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.353840104103825</v>
+        <v>1.238561543159512</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.603797196189759</v>
+        <v>1.43300922508225</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>1.593074800582169</v>
+        <v>1.302975312814947</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.306520627904194</v>
+        <v>1.544219114886341</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.467387175241558</v>
+        <v>1.500921332139237</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.232860849553058</v>
+        <v>1.286393065053167</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>1.64537169978804</v>
+        <v>1.729996415374163</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.469266762230734</v>
+        <v>1.445837691081808</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.455548125839692</v>
+        <v>1.511238171733634</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.413394675164642</v>
+        <v>1.342429979540541</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.396927099171968</v>
+        <v>1.318549673309813</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.471234177681767</v>
+        <v>1.388321072159703</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>1</v>
       </c>
       <c r="F55">
-        <v>1.092222195060655</v>
+        <v>1.45061727780706</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.444648336520792</v>
+        <v>1.632166386212981</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.618889500974743</v>
+        <v>1.481973128216814</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.559603833318852</v>
+        <v>1.738964325229609</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.705246988138341</v>
+        <v>1.455462773246719</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.552940530265693</v>
+        <v>1.546046049141122</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.682666780592725</v>
+        <v>1.447443205491461</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.415380370489775</v>
+        <v>1.73053054422252</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.193066382889153</v>
+        <v>1.438882396597519</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.644838106929517</v>
+        <v>1.417780337335213</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.371256902024701</v>
+        <v>1.278550926456369</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.655611065982403</v>
+        <v>1.364498884499653</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.831759682451073</v>
+        <v>1.541366556055785</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2523,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>1.660212069467871</v>
+        <v>1.717368849425739</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>1.561776823941147</v>
+        <v>1.555916908186312</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.371342998029969</v>
+        <v>1.463120466577678</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.39021345306175</v>
+        <v>1.350274226267809</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.683736742541381</v>
+        <v>1.531052609866738</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.674320505337325</v>
+        <v>1.5255469068017</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.624856750172442</v>
+        <v>1.510255247948017</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.364898556353836</v>
+        <v>1.850448751145978</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.888450598431079</v>
+        <v>1.430493764830711</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.400954499323258</v>
+        <v>1.852782876180456</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.632218966267474</v>
+        <v>1.393929091386216</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.817639952858914</v>
+        <v>1.319219853438427</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.485967590515764</v>
+        <v>1.783089225014247</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.536030649079501</v>
+        <v>1.232443442063186</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.305069078216877</v>
+        <v>1.517924587802337</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.654239110469434</v>
+        <v>1.382184888821097</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.515263229755736</v>
+        <v>1.724616039537447</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.945152569379921</v>
+        <v>1.445946668405498</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.513991502922959</v>
+        <v>1.515720464989272</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.756339042096353</v>
+        <v>1.587958799367885</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.580425377879071</v>
+        <v>1.490569502883623</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.407220530333687</v>
+        <v>1.659223495848387</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.39836614744807</v>
+        <v>1.458539909008331</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.311786475769961</v>
+        <v>1.56712633583374</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.415842196858417</v>
+        <v>1.689750848793612</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.304042657281134</v>
+        <v>1.380921714735229</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>1.747401843725415</v>
+        <v>1.672987104964484</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.398623752957562</v>
+        <v>1.372595404886435</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.606838177939143</v>
+        <v>1.645788946327438</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.641949336558706</v>
+        <v>1.347511411894644</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.617990949211642</v>
+        <v>1.824377653715637</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3143,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>1.609451866158085</v>
+        <v>1.38115071514552</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>1.481632591251743</v>
+        <v>1.293889970346795</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>1</v>
       </c>
       <c r="F101">
-        <v>1.503284491561108</v>
+        <v>1.517074388239152</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.599556402097172</v>
+        <v>1.6921812138911</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.505501165371412</v>
+        <v>1.288272565181568</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.200841457442906</v>
+        <v>1.582637710526948</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.396252747087724</v>
+        <v>1.456625698296051</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.607429571260535</v>
+        <v>1.420453040539754</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.467010190763269</v>
+        <v>1.617564804796906</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.589218076136377</v>
+        <v>1.419992523381884</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109">
-        <v>1.561102080580262</v>
+        <v>1.548906135035149</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.281499881344603</v>
+        <v>1.469195091660689</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.464890766122738</v>
+        <v>1.38003159033852</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3403,10 +3403,10 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>1.515220037398562</v>
+        <v>1.464331264105764</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3423,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>1.828036620382925</v>
+        <v>1.635002238784216</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.492666100252009</v>
+        <v>1.307620457312468</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3463,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115">
-        <v>1.524363201334708</v>
+        <v>1.450026320943414</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>1.596677378809031</v>
+        <v>1.351763981263615</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.566390436313149</v>
+        <v>1.520393588199095</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.401258614970241</v>
+        <v>1.354393811601075</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.53971960161488</v>
+        <v>1.619598935709103</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120">
-        <v>1.39567699963548</v>
+        <v>1.224260627083543</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.402613382962477</v>
+        <v>1.54939300099172</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.439115118421357</v>
+        <v>1.507927333627249</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123">
-        <v>1.81189952644243</v>
+        <v>1.51044600145092</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124">
-        <v>1.712167138142025</v>
+        <v>1.260499231687315</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>1.355291089515529</v>
+        <v>1.108497995576146</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.15234254113025</v>
+        <v>1.594369407247419</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.70000848518791</v>
+        <v>1.676718009676114</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.654209095289109</v>
+        <v>1.602040928795583</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.48296696873392</v>
+        <v>1.670098943811659</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.669282984628853</v>
+        <v>1.476333110135052</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.31704277497027</v>
+        <v>1.40601179694239</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.326376787509913</v>
+        <v>1.608129958854527</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.724080856551547</v>
+        <v>1.31733687218557</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.531771725402201</v>
+        <v>1.355237920598839</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3863,10 +3863,10 @@
         <v>2</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135">
-        <v>1.368982076684509</v>
+        <v>1.726205667823716</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.320980479336147</v>
+        <v>1.452051661423246</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.398570665794354</v>
+        <v>1.454315700718914</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.641751416734893</v>
+        <v>1.485205373919416</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.564230506565648</v>
+        <v>1.675650645462149</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>1.695459411711741</v>
+        <v>1.636814128573605</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.564207642338106</v>
+        <v>1.377448423536533</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.573731890486565</v>
+        <v>1.621657042328354</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.368173712859726</v>
+        <v>1.734512720050999</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.625414972855988</v>
+        <v>1.257361733216334</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.516293292569043</v>
+        <v>1.614993332475252</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.440477069699784</v>
+        <v>1.733780265856332</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.391441900730486</v>
+        <v>1.461962911960815</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.462575253890475</v>
+        <v>1.405537387271924</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.391103839876397</v>
+        <v>1.269779852773955</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4163,10 +4163,10 @@
         <v>2</v>
       </c>
       <c r="E150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>1.492406276168221</v>
+        <v>1.484294329574909</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.648182493076309</v>
+        <v>1.520866700553439</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.630011071361799</v>
+        <v>1.699207927043948</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.753017326890336</v>
+        <v>1.265680951068363</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>1.469577109466396</v>
+        <v>1.389249139344031</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4263,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155">
-        <v>1.609765766128569</v>
+        <v>1.503360908614452</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.365210843883949</v>
+        <v>1.757081134938345</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.21272739251262</v>
+        <v>1.371776289505508</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.286468237523255</v>
+        <v>1.562934175021809</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.511026485632807</v>
+        <v>1.503065995784151</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.471010345888024</v>
+        <v>1.41892288397871</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.387855192955178</v>
+        <v>1.32448128497179</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>1</v>
       </c>
       <c r="F162">
-        <v>1.48358666598835</v>
+        <v>1.615313561904847</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.58284101350712</v>
+        <v>1.518071887791417</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.558578427012734</v>
+        <v>1.44298492109398</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.566745923895888</v>
+        <v>1.561531905993367</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.579322537030988</v>
+        <v>1.114092964570628</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.416636946143612</v>
+        <v>1.525217661302481</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.368933010505013</v>
+        <v>1.671693094096464</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.646398279987028</v>
+        <v>1.519236620748988</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.590772846831847</v>
+        <v>1.614644583124586</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.459067252029344</v>
+        <v>1.55749631402905</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.230823029353836</v>
+        <v>1.511354792565639</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.534437765147482</v>
+        <v>1.593109624298525</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174">
-        <v>1.589424690955542</v>
+        <v>1.416624663199499</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4663,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="E175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>1.547013794315323</v>
+        <v>1.806983224793898</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.073829445894416</v>
+        <v>1.509147580799241</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.220677062576679</v>
+        <v>1.498494687614405</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178">
-        <v>1.49228568718066</v>
+        <v>1.757288553421586</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>1.425330464005341</v>
+        <v>1.4362631444376</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.51617610673884</v>
+        <v>1.573552787524249</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4783,10 +4783,10 @@
         <v>2</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181">
-        <v>1.50027966864813</v>
+        <v>1.497329050178138</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.254323824466008</v>
+        <v>1.540776285200894</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.526025639905669</v>
+        <v>1.386281907322581</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.753115139119023</v>
+        <v>1.719720520176867</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4863,10 +4863,10 @@
         <v>2</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185">
-        <v>1.666135986300396</v>
+        <v>1.568981267289993</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.393192355187742</v>
+        <v>1.562947389187447</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>1.510259341248699</v>
+        <v>1.568188241026029</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>1</v>
       </c>
       <c r="F188">
-        <v>1.501600845158636</v>
+        <v>1.778935697758451</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.26780973457713</v>
+        <v>1.625157074977335</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.492563911433693</v>
+        <v>1.491699862969097</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.530433081516177</v>
+        <v>1.544768156282929</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.276295301976175</v>
+        <v>1.587143810020116</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.410801117103849</v>
+        <v>1.415968183713559</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.414701331236359</v>
+        <v>1.377960663088871</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>1.256178032550288</v>
+        <v>1.536757670926431</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5083,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="E196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>1.239460555909002</v>
+        <v>1.512416623097317</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>1.445034036225565</v>
+        <v>1.477687290113644</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.412380868959455</v>
+        <v>1.324750704077376</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5143,10 +5143,10 @@
         <v>3</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199">
-        <v>1.559134122845019</v>
+        <v>1.493321816378548</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200">
-        <v>1.459823391977094</v>
+        <v>1.59990350884681</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.519214723103678</v>
+        <v>1.442287382234229</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.312795667734366</v>
+        <v>1.644288111235242</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.546976514186207</v>
+        <v>1.569859973579409</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5243,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204">
-        <v>1.404933680648535</v>
+        <v>1.458892456526361</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.303702392294709</v>
+        <v>1.151768562917257</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.257202619480844</v>
+        <v>1.547141317080877</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.480402277975001</v>
+        <v>1.718762518252746</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5323,10 +5323,10 @@
         <v>3</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208">
-        <v>1.647563667682982</v>
+        <v>1.480143676621102</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.658777710135387</v>
+        <v>1.287045850045035</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.35891905669181</v>
+        <v>1.603047772575908</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.665827265515855</v>
+        <v>1.520566398259186</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.514472520863722</v>
+        <v>1.350140947950088</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.487075747973278</v>
+        <v>1.612968428798522</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.457853210393471</v>
+        <v>1.396108497638449</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.414578778496706</v>
+        <v>1.419746436668598</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.51491051979429</v>
+        <v>1.331313181145013</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.501395432803884</v>
+        <v>1.572317642907354</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.351954405909851</v>
+        <v>1.476968855002933</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.265173737177742</v>
+        <v>1.201530831659369</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.496849271250985</v>
+        <v>1.459123096037301</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F221">
-        <v>1.638426104263545</v>
+        <v>1.167116494422449</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.422531993879259</v>
+        <v>1.513800178277538</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5623,10 +5623,10 @@
         <v>3</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F223">
-        <v>1.428572623987091</v>
+        <v>1.472969583154321</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.557502903467113</v>
+        <v>1.583481788612623</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.576065262551436</v>
+        <v>1.511687414360938</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F226">
-        <v>1.259197176024958</v>
+        <v>1.561971959682132</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.689899183770219</v>
+        <v>1.326018666605784</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.589721121542811</v>
+        <v>1.414780735568463</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.632670459575397</v>
+        <v>1.368078970324541</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>1</v>
       </c>
       <c r="F230">
-        <v>1.812910151294187</v>
+        <v>1.307947260239826</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>1</v>
       </c>
       <c r="F231">
-        <v>1.577700030224341</v>
+        <v>1.32359981144593</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.41258314569419</v>
+        <v>1.433284359296973</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.4992405191611</v>
+        <v>1.548337374758015</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.517293825856714</v>
+        <v>1.289828648252378</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.75297878528194</v>
+        <v>1.39242332918154</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.304729045680213</v>
+        <v>1.593641743642493</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.412464231620052</v>
+        <v>1.686303049005526</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.422364791123621</v>
+        <v>1.622661764654559</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.33925426581006</v>
+        <v>1.716983616997947</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.56351389490727</v>
+        <v>1.209922236592411</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.426667827735342</v>
+        <v>1.571805322803144</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.498147166864395</v>
+        <v>1.596569601527182</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.352074031421692</v>
+        <v>1.440657990980029</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.372931534875501</v>
+        <v>1.504530411099952</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.677376284888071</v>
+        <v>1.468255131258999</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.459518188387554</v>
+        <v>1.431547477037903</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6103,10 +6103,10 @@
         <v>3</v>
       </c>
       <c r="E247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F247">
-        <v>1.516331846674587</v>
+        <v>1.223992875459558</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.306051015679176</v>
+        <v>1.580128275920428</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.583809041663401</v>
+        <v>1.493583494493269</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.437179937528975</v>
+        <v>1.405156334911986</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.538927010873792</v>
+        <v>1.653776523179075</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.605846404399902</v>
+        <v>1.437404754562229</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.466430798037065</v>
+        <v>1.483321744489183</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.588314995287097</v>
+        <v>1.298330443237017</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.625950668177538</v>
+        <v>1.247996167609027</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.596657263583733</v>
+        <v>1.487330004832488</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F257">
-        <v>1.241178007146925</v>
+        <v>1.268345536544558</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/25_localizer.xlsx
+++ b/sequences/25_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
     <t>house</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>face</t>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
   </si>
   <si>
     <t>house/house035.jpg</t>
   </si>
   <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
     <t>house/house044.jpg</t>
   </si>
   <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
   </si>
   <si>
     <t>flower/flower058.jpg</t>
   </si>
   <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
   </si>
   <si>
     <t>flower/flower059.jpg</t>
   </si>
   <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
   </si>
   <si>
     <t>face/face059.jpg</t>
   </si>
   <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
     <t>face/face057.jpg</t>
   </si>
   <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
   </si>
   <si>
     <t>house/house075.jpg</t>
   </si>
   <si>
-    <t>dog/dog077.jpg</t>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
   </si>
   <si>
     <t>face/face067.jpg</t>
   </si>
   <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
     <t>flower/flower081.jpg</t>
   </si>
   <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
+    <t>flower/flower077.jpg</t>
   </si>
   <si>
     <t>flower/flower080.jpg</t>
   </si>
   <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
+    <t>house/house076.jpg</t>
   </si>
   <si>
     <t>flower/flower076.jpg</t>
   </si>
   <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
   </si>
   <si>
     <t>flower/flower083.jpg</t>
   </si>
   <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
   </si>
   <si>
     <t>flower/flower089.jpg</t>
   </si>
   <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
     <t>dog/dog091.jpg</t>
   </si>
   <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
     <t>dog/dog080.jpg</t>
   </si>
   <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
     <t>dog/dog095.jpg</t>
   </si>
   <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
   </si>
   <si>
     <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.560884962896441</v>
+        <v>1.483679938494669</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.498301790854888</v>
+        <v>1.443905926817175</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1.674548272103761</v>
+        <v>1.294880978577942</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1.755017180317696</v>
+        <v>1.485231723624576</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1.517793756320596</v>
+        <v>1.40971111403699</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.502095147886999</v>
+        <v>1.344100109706752</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1.433953376633384</v>
+        <v>1.08387816091825</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.53578702873965</v>
+        <v>1.711352962476105</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.71767029265997</v>
+        <v>1.371096830711965</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1383,10 +1383,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1.44306963519693</v>
+        <v>1.670844821922218</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.507374292930761</v>
+        <v>1.665547232840009</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1.422108223025122</v>
+        <v>1.391818539228093</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.462036709651187</v>
+        <v>1.220930453514516</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.524970510545181</v>
+        <v>1.615309027216757</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.54903352216747</v>
+        <v>1.534189936393263</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1503,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1.70820994861244</v>
+        <v>1.899070268327353</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.377678772280855</v>
+        <v>1.492612538938376</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1.488538125394913</v>
+        <v>1.485896069832747</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.569997275516356</v>
+        <v>1.437360586926369</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.610050652607748</v>
+        <v>1.112029145538165</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>1.442769084736561</v>
+        <v>1.652593038847828</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.513629485786555</v>
+        <v>1.684132549916785</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.372135564852246</v>
+        <v>1.484313579192597</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.437631001653058</v>
+        <v>1.571098971838849</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.54216911968453</v>
+        <v>1.472660821108672</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.459339138498</v>
+        <v>1.623596813985321</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.348459592999713</v>
+        <v>1.562569757274979</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.193915936855028</v>
+        <v>1.385647717908275</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.644214785088997</v>
+        <v>1.378681953110106</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>1.541094156886383</v>
+        <v>1.479100057123077</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.489095896154415</v>
+        <v>1.749302423480253</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.646391970579413</v>
+        <v>1.812959775262407</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.385897298896013</v>
+        <v>1.506633319998674</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>1.637533790254672</v>
+        <v>1.311056759886104</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.420671619624664</v>
+        <v>1.524682296026702</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1.28729710993328</v>
+        <v>1.526170845800121</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.493462739006992</v>
+        <v>1.365385438019184</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.427754133375611</v>
+        <v>1.570678359614617</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.583615609320888</v>
+        <v>1.665280714892827</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.568800514679273</v>
+        <v>1.466424146839099</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.322622765429897</v>
+        <v>1.536827988699178</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.238561543159512</v>
+        <v>1.495967625540698</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.43300922508225</v>
+        <v>1.622274095549716</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.302975312814947</v>
+        <v>1.575524426198091</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.544219114886341</v>
+        <v>1.48468134468116</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>1.500921332139237</v>
+        <v>1.497228528915376</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.286393065053167</v>
+        <v>1.553324308570455</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.729996415374163</v>
+        <v>1.574944804871386</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.445837691081808</v>
+        <v>1.286943684575276</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.511238171733634</v>
+        <v>1.726822784001012</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2203,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>1.342429979540541</v>
+        <v>1.335248837467119</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.318549673309813</v>
+        <v>1.523057753701696</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.388321072159703</v>
+        <v>1.513199298087258</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>1.45061727780706</v>
+        <v>1.285625327954417</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.632166386212981</v>
+        <v>1.204424726453763</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.481973128216814</v>
+        <v>1.651567102252115</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.738964325229609</v>
+        <v>1.268510516687763</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.455462773246719</v>
+        <v>1.402616085523497</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.546046049141122</v>
+        <v>1.572835369858531</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.447443205491461</v>
+        <v>1.56296411718684</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.73053054422252</v>
+        <v>1.635348106007022</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>1.438882396597519</v>
+        <v>1.274511952180168</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.417780337335213</v>
+        <v>1.689674188193502</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.278550926456369</v>
+        <v>1.479616401368512</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.364498884499653</v>
+        <v>1.614211533636758</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.541366556055785</v>
+        <v>1.608332932742563</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.717368849425739</v>
+        <v>1.542490540362098</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>1.555916908186312</v>
+        <v>1.403441314217412</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.463120466577678</v>
+        <v>1.437968965496395</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.350274226267809</v>
+        <v>1.518155265289039</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.531052609866738</v>
+        <v>1.774143268804889</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.5255469068017</v>
+        <v>1.511222116131657</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.510255247948017</v>
+        <v>1.414958511912609</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>1.850448751145978</v>
+        <v>1.50964107720524</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.430493764830711</v>
+        <v>1.460573241339956</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.852782876180456</v>
+        <v>1.682221572749566</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.393929091386216</v>
+        <v>1.613867802859305</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.319219853438427</v>
+        <v>1.688059583188835</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>1.783089225014247</v>
+        <v>1.466837563040876</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.232443442063186</v>
+        <v>1.501720885979309</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.517924587802337</v>
+        <v>1.755078533633075</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2823,10 +2823,10 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83">
-        <v>1.382184888821097</v>
+        <v>1.525733755215404</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.724616039537447</v>
+        <v>1.410823248029432</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.445946668405498</v>
+        <v>1.290885927084194</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2883,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86">
-        <v>1.515720464989272</v>
+        <v>1.332240706761061</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.587958799367885</v>
+        <v>1.47747016984937</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.490569502883623</v>
+        <v>1.386710615159783</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.659223495848387</v>
+        <v>1.395415581510901</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.458539909008331</v>
+        <v>1.448145070796929</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.56712633583374</v>
+        <v>1.434336560390334</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.689750848793612</v>
+        <v>1.780527079770024</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.380921714735229</v>
+        <v>1.441029444320061</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.672987104964484</v>
+        <v>1.717846490213043</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.372595404886435</v>
+        <v>1.655619664167461</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.645788946327438</v>
+        <v>1.302585410769307</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.347511411894644</v>
+        <v>1.593282714967701</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.824377653715637</v>
+        <v>1.059271845540228</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.38115071514552</v>
+        <v>1.522072045109746</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>1.293889970346795</v>
+        <v>1.492477204422614</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>1.517074388239152</v>
+        <v>1.503438775964751</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.6921812138911</v>
+        <v>1.246333771709774</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.288272565181568</v>
+        <v>1.495091397666378</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.582637710526948</v>
+        <v>1.685911875521693</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105">
-        <v>1.456625698296051</v>
+        <v>1.366853090440806</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.420453040539754</v>
+        <v>1.704357103658694</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.617564804796906</v>
+        <v>1.552331052824519</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.419992523381884</v>
+        <v>1.429865198754032</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>1.548906135035149</v>
+        <v>1.529726450908989</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.469195091660689</v>
+        <v>1.541681703784335</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.38003159033852</v>
+        <v>1.331232037663664</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.464331264105764</v>
+        <v>1.270224659584517</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.635002238784216</v>
+        <v>1.465228038470199</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.307620457312468</v>
+        <v>1.305069728596631</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3463,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>1.450026320943414</v>
+        <v>1.417994267457613</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.351763981263615</v>
+        <v>1.583401210441441</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.520393588199095</v>
+        <v>1.371193610583669</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3523,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118">
-        <v>1.354393811601075</v>
+        <v>1.455105685040391</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.619598935709103</v>
+        <v>1.696031196890821</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>1.224260627083543</v>
+        <v>1.557636709137968</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.54939300099172</v>
+        <v>1.190574278661346</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.507927333627249</v>
+        <v>1.688248839220114</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>1.51044600145092</v>
+        <v>1.723388849872077</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>1.260499231687315</v>
+        <v>1.628148908686994</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.108497995576146</v>
+        <v>1.475818898734093</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126">
-        <v>1.594369407247419</v>
+        <v>1.403500496084725</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.676718009676114</v>
+        <v>1.59574092084711</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.602040928795583</v>
+        <v>1.655554339071041</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3743,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129">
-        <v>1.670098943811659</v>
+        <v>1.54549963039357</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.476333110135052</v>
+        <v>1.564592579861384</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.40601179694239</v>
+        <v>1.419847196199628</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.608129958854527</v>
+        <v>1.621258941173763</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.31733687218557</v>
+        <v>1.491780211061626</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3843,10 +3843,10 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134">
-        <v>1.355237920598839</v>
+        <v>1.519467216445558</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3863,10 +3863,10 @@
         <v>2</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>1.726205667823716</v>
+        <v>1.578884568190543</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.452051661423246</v>
+        <v>1.431044920242915</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.454315700718914</v>
+        <v>1.720242376308708</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.485205373919416</v>
+        <v>1.481391047379876</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.675650645462149</v>
+        <v>1.506168771467997</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.636814128573605</v>
+        <v>1.216974763777658</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.377448423536533</v>
+        <v>1.485520388976038</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.621657042328354</v>
+        <v>1.360808129506002</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.734512720050999</v>
+        <v>1.221394541075117</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.257361733216334</v>
+        <v>1.835562282632007</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4063,10 +4063,10 @@
         <v>2</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145">
-        <v>1.614993332475252</v>
+        <v>1.372493208244009</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.733780265856332</v>
+        <v>1.462090750356514</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.461962911960815</v>
+        <v>1.502412869658865</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.405537387271924</v>
+        <v>1.588122595277432</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149">
-        <v>1.269779852773955</v>
+        <v>1.483897158018218</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.484294329574909</v>
+        <v>1.611582788969019</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.520866700553439</v>
+        <v>1.548511954607354</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.699207927043948</v>
+        <v>1.490653158555953</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.265680951068363</v>
+        <v>1.755416548947895</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.389249139344031</v>
+        <v>1.51381267498855</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4263,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>1.503360908614452</v>
+        <v>1.423028911870374</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4283,10 +4283,10 @@
         <v>2</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156">
-        <v>1.757081134938345</v>
+        <v>1.847116189943989</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.371776289505508</v>
+        <v>1.535711128022056</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.562934175021809</v>
+        <v>1.541628959536939</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.503065995784151</v>
+        <v>1.549398984408429</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.41892288397871</v>
+        <v>1.462746952291321</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.32448128497179</v>
+        <v>1.647523866754468</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4403,10 +4403,10 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>1.615313561904847</v>
+        <v>1.272750628326483</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.518071887791417</v>
+        <v>1.544048776857384</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.44298492109398</v>
+        <v>1.54514664156348</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.561531905993367</v>
+        <v>1.583844495093432</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.114092964570628</v>
+        <v>1.553673776590438</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167">
-        <v>1.525217661302481</v>
+        <v>1.565208763400031</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.671693094096464</v>
+        <v>1.42458397601805</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.519236620748988</v>
+        <v>1.377167000924279</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170">
-        <v>1.614644583124586</v>
+        <v>1.328304896980111</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.55749631402905</v>
+        <v>1.537495134921206</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.511354792565639</v>
+        <v>1.6260248902082</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.593109624298525</v>
+        <v>1.646777873944059</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>1.416624663199499</v>
+        <v>1.398203908138294</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.806983224793898</v>
+        <v>1.562339660098695</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.509147580799241</v>
+        <v>1.233855970081082</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177">
-        <v>1.498494687614405</v>
+        <v>1.379686819171188</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>1.757288553421586</v>
+        <v>1.404301972258909</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179">
-        <v>1.4362631444376</v>
+        <v>1.4480297513507</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.573552787524249</v>
+        <v>1.560185297293036</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4783,10 +4783,10 @@
         <v>2</v>
       </c>
       <c r="E181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>1.497329050178138</v>
+        <v>1.520430505994</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.540776285200894</v>
+        <v>1.466784802064662</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.386281907322581</v>
+        <v>1.601900601048398</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.719720520176867</v>
+        <v>1.387623066117396</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4863,10 +4863,10 @@
         <v>2</v>
       </c>
       <c r="E185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F185">
-        <v>1.568981267289993</v>
+        <v>1.503689975352373</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.562947389187447</v>
+        <v>1.314733780153732</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.568188241026029</v>
+        <v>1.893794616891382</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>1.778935697758451</v>
+        <v>1.249903015724241</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.625157074977335</v>
+        <v>1.552997512903669</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.491699862969097</v>
+        <v>1.601743808124313</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.544768156282929</v>
+        <v>1.758099470181573</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.587143810020116</v>
+        <v>1.750146929910327</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.415968183713559</v>
+        <v>1.359487262102044</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.377960663088871</v>
+        <v>1.603376876161321</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.536757670926431</v>
+        <v>1.421268422459174</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.512416623097317</v>
+        <v>1.49748536404581</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197">
-        <v>1.477687290113644</v>
+        <v>1.339129073757764</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.324750704077376</v>
+        <v>1.23369340958219</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5143,10 +5143,10 @@
         <v>3</v>
       </c>
       <c r="E199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F199">
-        <v>1.493321816378548</v>
+        <v>1.825042499689529</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F200">
-        <v>1.59990350884681</v>
+        <v>1.599447611663121</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.442287382234229</v>
+        <v>1.578195934199436</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.644288111235242</v>
+        <v>1.201082865579647</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.569859973579409</v>
+        <v>1.606218389534093</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5243,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>1.458892456526361</v>
+        <v>1.480433063376486</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.151768562917257</v>
+        <v>1.670059055529145</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5283,10 +5283,10 @@
         <v>3</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206">
-        <v>1.547141317080877</v>
+        <v>1.480953516770314</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.718762518252746</v>
+        <v>1.239836226919449</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5323,10 +5323,10 @@
         <v>3</v>
       </c>
       <c r="E208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F208">
-        <v>1.480143676621102</v>
+        <v>1.47600544095597</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.287045850045035</v>
+        <v>1.314886820366657</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.603047772575908</v>
+        <v>1.505180263365882</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.520566398259186</v>
+        <v>1.345512511246196</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.350140947950088</v>
+        <v>1.650457651702633</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.612968428798522</v>
+        <v>1.776298185917629</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.396108497638449</v>
+        <v>1.560862229905843</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.419746436668598</v>
+        <v>1.387906653905982</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.331313181145013</v>
+        <v>1.693460350373603</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.572317642907354</v>
+        <v>1.299482115633177</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.476968855002933</v>
+        <v>1.452557106062388</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.201530831659369</v>
+        <v>1.411851751941953</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.459123096037301</v>
+        <v>1.234028264371769</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F221">
-        <v>1.167116494422449</v>
+        <v>1.32214895305812</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.513800178277538</v>
+        <v>1.518309933157312</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5623,10 +5623,10 @@
         <v>3</v>
       </c>
       <c r="E223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F223">
-        <v>1.472969583154321</v>
+        <v>1.456655378944676</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.583481788612623</v>
+        <v>1.592533808396242</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.511687414360938</v>
+        <v>1.5621135374233</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.561971959682132</v>
+        <v>1.377491723461763</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F227">
-        <v>1.326018666605784</v>
+        <v>1.586837130741326</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5723,10 +5723,10 @@
         <v>3</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F228">
-        <v>1.414780735568463</v>
+        <v>1.586397937355925</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.368078970324541</v>
+        <v>1.624172220332489</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5763,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F230">
-        <v>1.307947260239826</v>
+        <v>1.470941286750291</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>1</v>
       </c>
       <c r="F231">
-        <v>1.32359981144593</v>
+        <v>1.410323470977285</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.433284359296973</v>
+        <v>1.487953711634087</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5823,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F233">
-        <v>1.548337374758015</v>
+        <v>1.763728125312695</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F234">
-        <v>1.289828648252378</v>
+        <v>1.45007178522738</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.39242332918154</v>
+        <v>1.480873859345622</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.593641743642493</v>
+        <v>1.650758303127565</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.686303049005526</v>
+        <v>1.40017246992326</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.622661764654559</v>
+        <v>1.391967571102982</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.716983616997947</v>
+        <v>1.581813764360591</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.209922236592411</v>
+        <v>1.398410196584704</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.571805322803144</v>
+        <v>1.406686594567457</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.596569601527182</v>
+        <v>1.844802255698677</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.440657990980029</v>
+        <v>1.51838443541105</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.504530411099952</v>
+        <v>1.432476885082582</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.468255131258999</v>
+        <v>1.433555997515472</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.431547477037903</v>
+        <v>1.59949871064593</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.223992875459558</v>
+        <v>1.527083926718455</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.580128275920428</v>
+        <v>1.496354079026441</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.493583494493269</v>
+        <v>1.402755870336643</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.405156334911986</v>
+        <v>1.810186643931319</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.653776523179075</v>
+        <v>1.492601237647226</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.437404754562229</v>
+        <v>1.654225902022293</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.483321744489183</v>
+        <v>1.468960302738837</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.298330443237017</v>
+        <v>1.330397069414272</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.247996167609027</v>
+        <v>1.575397503893369</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.487330004832488</v>
+        <v>1.641402050030025</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.268345536544558</v>
+        <v>1.62721947700304</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/25_localizer.xlsx
+++ b/sequences/25_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>house</t>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
   </si>
   <si>
     <t>flower/flower045.jpg</t>
   </si>
   <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
   </si>
   <si>
     <t>house/house037.jpg</t>
   </si>
   <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
+    <t>face/face041.jpg</t>
   </si>
   <si>
     <t>house/house041.jpg</t>
   </si>
   <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
   </si>
   <si>
     <t>face/face062.jpg</t>
   </si>
   <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
   </si>
   <si>
     <t>house/house050.jpg</t>
   </si>
   <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
+    <t>face/face050.jpg</t>
   </si>
   <si>
     <t>dog/dog063.jpg</t>
   </si>
   <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
   </si>
   <si>
     <t>house/house077.jpg</t>
   </si>
   <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
   </si>
   <si>
     <t>flower/flower068.jpg</t>
   </si>
   <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
+    <t>dog/dog074.jpg</t>
   </si>
   <si>
     <t>dog/dog069.jpg</t>
   </si>
   <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
     <t>house/house069.jpg</t>
   </si>
   <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
     <t>flower/flower067.jpg</t>
   </si>
   <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
   </si>
   <si>
     <t>dog/dog093.jpg</t>
   </si>
   <si>
-    <t>face/face093.jpg</t>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
   </si>
   <si>
     <t>dog/dog092.jpg</t>
   </si>
   <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
     <t>dog/dog088.jpg</t>
   </si>
   <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
     <t>flower/flower096.jpg</t>
   </si>
   <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
   </si>
   <si>
     <t>face/face086.jpg</t>
   </si>
   <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
   </si>
   <si>
     <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.483679938494669</v>
+        <v>1.655802698893057</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.443905926817175</v>
+        <v>1.414937946325102</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1.294880978577942</v>
+        <v>1.478193348732753</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.485231723624576</v>
+        <v>1.532091962700325</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1.40971111403699</v>
+        <v>1.442783464229641</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.344100109706752</v>
+        <v>1.490896793452793</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1.08387816091825</v>
+        <v>1.425084084532665</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.711352962476105</v>
+        <v>1.605878195782801</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1.371096830711965</v>
+        <v>1.705227449393877</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.670844821922218</v>
+        <v>1.609619349372435</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.665547232840009</v>
+        <v>1.481848673798386</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1.391818539228093</v>
+        <v>1.409564491053402</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.220930453514516</v>
+        <v>1.558043768402168</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.615309027216757</v>
+        <v>1.634100537982211</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1.534189936393263</v>
+        <v>1.475776682430907</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.899070268327353</v>
+        <v>1.441993593145945</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.492612538938376</v>
+        <v>1.355471215302564</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>1.485896069832747</v>
+        <v>1.363327899695052</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.437360586926369</v>
+        <v>1.48473798921811</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.112029145538165</v>
+        <v>1.407452839692468</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.652593038847828</v>
+        <v>1.379654171910491</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.684132549916785</v>
+        <v>1.747425198011831</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.484313579192597</v>
+        <v>1.482343038446381</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.571098971838849</v>
+        <v>1.373158253029868</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.472660821108672</v>
+        <v>1.571778299074969</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.623596813985321</v>
+        <v>1.522753004084551</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.562569757274979</v>
+        <v>1.336293101276009</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.385647717908275</v>
+        <v>1.55639571320448</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.378681953110106</v>
+        <v>1.291930014462562</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.479100057123077</v>
+        <v>1.475896773683532</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.749302423480253</v>
+        <v>1.164879763184087</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.812959775262407</v>
+        <v>1.433533077640701</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.506633319998674</v>
+        <v>1.567587886216552</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.311056759886104</v>
+        <v>1.567655310516219</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.524682296026702</v>
+        <v>1.227087353542228</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>1.526170845800121</v>
+        <v>1.510481796445938</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>1.365385438019184</v>
+        <v>1.659605736899655</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.570678359614617</v>
+        <v>1.448312095455983</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>1.665280714892827</v>
+        <v>1.596146310985814</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.466424146839099</v>
+        <v>1.455026760015824</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.536827988699178</v>
+        <v>1.552194819324336</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.495967625540698</v>
+        <v>1.440445431712892</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.622274095549716</v>
+        <v>1.618709027808771</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.575524426198091</v>
+        <v>1.65506909312218</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.48468134468116</v>
+        <v>1.668906384403758</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>1.497228528915376</v>
+        <v>1.870893535113028</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.553324308570455</v>
+        <v>1.700892929052141</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.574944804871386</v>
+        <v>1.088829381137269</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.286943684575276</v>
+        <v>1.295991959632832</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.726822784001012</v>
+        <v>1.492707211903088</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2203,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>1.335248837467119</v>
+        <v>1.516362576658969</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.523057753701696</v>
+        <v>1.087388315315461</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.513199298087258</v>
+        <v>1.315808038342964</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.285625327954417</v>
+        <v>1.432354261013801</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.204424726453763</v>
+        <v>1.374502287769885</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.651567102252115</v>
+        <v>1.610554830999756</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.268510516687763</v>
+        <v>1.187244548803212</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.402616085523497</v>
+        <v>1.445356603651744</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.572835369858531</v>
+        <v>1.461736974483353</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>1.56296411718684</v>
+        <v>1.30357087972807</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.635348106007022</v>
+        <v>1.628342945825696</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="F63">
-        <v>1.274511952180168</v>
+        <v>1.604411566841239</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.689674188193502</v>
+        <v>1.38801629985205</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.479616401368512</v>
+        <v>1.699421348403351</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.614211533636758</v>
+        <v>1.628933985775236</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.608332932742563</v>
+        <v>1.527404790025634</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.542490540362098</v>
+        <v>1.406414998969898</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.403441314217412</v>
+        <v>1.688071406423092</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.437968965496395</v>
+        <v>1.882229167136762</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.518155265289039</v>
+        <v>1.704563677442254</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2603,10 +2603,10 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>1.774143268804889</v>
+        <v>1.545559595492895</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2623,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>1.511222116131657</v>
+        <v>1.34184571069391</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.414958511912609</v>
+        <v>1.411680247147863</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>1.50964107720524</v>
+        <v>1.54346082304459</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.460573241339956</v>
+        <v>1.233014014040213</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.682221572749566</v>
+        <v>1.374137234747439</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.613867802859305</v>
+        <v>1.534274196265447</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.688059583188835</v>
+        <v>1.372984210004124</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>1.466837563040876</v>
+        <v>1.341833295516223</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2783,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>1.501720885979309</v>
+        <v>1.431033227043391</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2803,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82">
-        <v>1.755078533633075</v>
+        <v>1.364770469012786</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2823,10 +2823,10 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>1.525733755215404</v>
+        <v>1.528341084503942</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.410823248029432</v>
+        <v>1.788395041121451</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.290885927084194</v>
+        <v>1.551455731285765</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2883,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>1.332240706761061</v>
+        <v>1.473873896075868</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2903,10 +2903,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87">
-        <v>1.47747016984937</v>
+        <v>1.433697718269826</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.386710615159783</v>
+        <v>1.643799521103314</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.395415581510901</v>
+        <v>1.593776581967524</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.448145070796929</v>
+        <v>1.129131296523325</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.434336560390334</v>
+        <v>1.522783385678588</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.780527079770024</v>
+        <v>1.786259911725222</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.441029444320061</v>
+        <v>1.529299758992976</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.717846490213043</v>
+        <v>1.434793603377794</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.655619664167461</v>
+        <v>1.669034238271128</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.302585410769307</v>
+        <v>1.857501770115913</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.593282714967701</v>
+        <v>1.377338778545543</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.059271845540228</v>
+        <v>1.29117525663065</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.522072045109746</v>
+        <v>1.59244450378733</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.492477204422614</v>
+        <v>1.318721471126779</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.503438775964751</v>
+        <v>1.238315421484747</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.246333771709774</v>
+        <v>1.512576849828681</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.495091397666378</v>
+        <v>1.380543884934721</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.685911875521693</v>
+        <v>1.297113031892524</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>1</v>
       </c>
       <c r="F105">
-        <v>1.366853090440806</v>
+        <v>1.286033478400291</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.704357103658694</v>
+        <v>1.443016971143804</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.552331052824519</v>
+        <v>1.539506553360483</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.429865198754032</v>
+        <v>1.40792500824958</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.529726450908989</v>
+        <v>1.808619938234896</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.541681703784335</v>
+        <v>1.565197374442725</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3383,10 +3383,10 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111">
-        <v>1.331232037663664</v>
+        <v>1.509959844811742</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.270224659584517</v>
+        <v>1.347044812603968</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.465228038470199</v>
+        <v>1.451781871580472</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114">
-        <v>1.305069728596631</v>
+        <v>1.525843812377331</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.417994267457613</v>
+        <v>1.562966387460543</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.583401210441441</v>
+        <v>1.804490783505579</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.371193610583669</v>
+        <v>1.71224275500693</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3523,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>1.455105685040391</v>
+        <v>1.404188520680162</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.696031196890821</v>
+        <v>1.69205824788629</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.557636709137968</v>
+        <v>1.777528535915334</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.190574278661346</v>
+        <v>1.583236585370983</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.688248839220114</v>
+        <v>1.507741895519826</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.723388849872077</v>
+        <v>1.49448258677861</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.628148908686994</v>
+        <v>1.591352567311608</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.475818898734093</v>
+        <v>1.699369118382011</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>1.403500496084725</v>
+        <v>1.415068733747485</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.59574092084711</v>
+        <v>1.644021993037472</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.655554339071041</v>
+        <v>1.332993224982324</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3743,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>1.54549963039357</v>
+        <v>1.568447149568215</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.564592579861384</v>
+        <v>1.243572975084234</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.419847196199628</v>
+        <v>1.645720083166575</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.621258941173763</v>
+        <v>1.663987941708349</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3823,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133">
-        <v>1.491780211061626</v>
+        <v>1.29449654170752</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3843,10 +3843,10 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>1.519467216445558</v>
+        <v>1.783081578095146</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.578884568190543</v>
+        <v>1.546153252787875</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.431044920242915</v>
+        <v>1.387203183435901</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.720242376308708</v>
+        <v>1.527748486083703</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.481391047379876</v>
+        <v>1.438467429667127</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.506168771467997</v>
+        <v>1.488897041740689</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.216974763777658</v>
+        <v>1.572386486180364</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3983,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141">
-        <v>1.485520388976038</v>
+        <v>1.672929383903977</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.360808129506002</v>
+        <v>1.44966672132909</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.221394541075117</v>
+        <v>1.581557215227027</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.835562282632007</v>
+        <v>1.580070624681891</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4063,10 +4063,10 @@
         <v>2</v>
       </c>
       <c r="E145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>1.372493208244009</v>
+        <v>1.692042431065854</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.462090750356514</v>
+        <v>1.652965744768715</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.502412869658865</v>
+        <v>1.375913513636376</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.588122595277432</v>
+        <v>1.4165218125012</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4146,7 +4146,7 @@
         <v>1</v>
       </c>
       <c r="F149">
-        <v>1.483897158018218</v>
+        <v>1.291102494852544</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.611582788969019</v>
+        <v>1.624346041731024</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.548511954607354</v>
+        <v>1.550853442477399</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.490653158555953</v>
+        <v>1.491162685349317</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.755416548947895</v>
+        <v>1.360903609634708</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154">
-        <v>1.51381267498855</v>
+        <v>1.504806498918793</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.423028911870374</v>
+        <v>1.778460053336905</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4283,10 +4283,10 @@
         <v>2</v>
       </c>
       <c r="E156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>1.847116189943989</v>
+        <v>1.511452092702489</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.535711128022056</v>
+        <v>1.439133431052685</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.541628959536939</v>
+        <v>1.331637149895885</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4343,10 +4343,10 @@
         <v>2</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159">
-        <v>1.549398984408429</v>
+        <v>1.658861196086933</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.462746952291321</v>
+        <v>1.353842695228903</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161">
-        <v>1.647523866754468</v>
+        <v>1.671996648642443</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.272750628326483</v>
+        <v>1.404365910439515</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.544048776857384</v>
+        <v>1.478859921557142</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.54514664156348</v>
+        <v>1.492450785286875</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165">
-        <v>1.583844495093432</v>
+        <v>1.624544077598814</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.553673776590438</v>
+        <v>1.417299452901371</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>1.565208763400031</v>
+        <v>1.299088743529836</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.42458397601805</v>
+        <v>1.655961286261141</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.377167000924279</v>
+        <v>1.779781788041318</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>1.328304896980111</v>
+        <v>1.249097263724865</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.537495134921206</v>
+        <v>1.562505866637802</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.6260248902082</v>
+        <v>1.602740937508582</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.646777873944059</v>
+        <v>1.478316351770195</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.398203908138294</v>
+        <v>1.789777861297013</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.562339660098695</v>
+        <v>1.171492761241723</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.233855970081082</v>
+        <v>1.45908800230719</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177">
-        <v>1.379686819171188</v>
+        <v>1.464914814689589</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.404301972258909</v>
+        <v>1.503215464530161</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>1.4480297513507</v>
+        <v>1.579404738156851</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.560185297293036</v>
+        <v>1.857693341729354</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.520430505994</v>
+        <v>1.538501003632787</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.466784802064662</v>
+        <v>1.430157394558395</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.601900601048398</v>
+        <v>1.646980407569074</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.387623066117396</v>
+        <v>1.61308564175213</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4863,10 +4863,10 @@
         <v>2</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185">
-        <v>1.503689975352373</v>
+        <v>1.389524800561065</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.314733780153732</v>
+        <v>1.467171777994361</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.893794616891382</v>
+        <v>1.433095374349</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.249903015724241</v>
+        <v>1.513009981449641</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.552997512903669</v>
+        <v>1.470582945212067</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.601743808124313</v>
+        <v>1.343429234215306</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.758099470181573</v>
+        <v>1.798341661394804</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.750146929910327</v>
+        <v>1.557679111578078</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.359487262102044</v>
+        <v>1.443948119671491</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.603376876161321</v>
+        <v>1.331371625825808</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.421268422459174</v>
+        <v>1.50125763695551</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.49748536404581</v>
+        <v>1.779428007807615</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>1.339129073757764</v>
+        <v>1.595634437007208</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5123,10 +5123,10 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198">
-        <v>1.23369340958219</v>
+        <v>1.633258969068339</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.825042499689529</v>
+        <v>1.555957287640875</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>1.599447611663121</v>
+        <v>1.449957940374586</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.578195934199436</v>
+        <v>1.475213785895195</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.201082865579647</v>
+        <v>1.488642488074543</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.606218389534093</v>
+        <v>1.611987978109841</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.480433063376486</v>
+        <v>1.321559737357347</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.670059055529145</v>
+        <v>1.54973724985876</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5283,10 +5283,10 @@
         <v>3</v>
       </c>
       <c r="E206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F206">
-        <v>1.480953516770314</v>
+        <v>1.847392650714995</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.239836226919449</v>
+        <v>1.303159492445998</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.47600544095597</v>
+        <v>1.597057929222234</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.314886820366657</v>
+        <v>1.472814442919254</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.505180263365882</v>
+        <v>1.63606810692359</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.345512511246196</v>
+        <v>1.478613766203309</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.650457651702633</v>
+        <v>1.503720388550302</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.776298185917629</v>
+        <v>1.432474508782031</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.560862229905843</v>
+        <v>1.777908604211341</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5463,10 +5463,10 @@
         <v>3</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F215">
-        <v>1.387906653905982</v>
+        <v>1.672308682375691</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.693460350373603</v>
+        <v>1.383172559442915</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F217">
-        <v>1.299482115633177</v>
+        <v>1.462548896099579</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.452557106062388</v>
+        <v>1.988646887829423</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.411851751941953</v>
+        <v>1.324791937560884</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.234028264371769</v>
+        <v>1.447396796719863</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.32214895305812</v>
+        <v>1.598776800393588</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.518309933157312</v>
+        <v>1.249644813811227</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.456655378944676</v>
+        <v>1.666498624855912</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.592533808396242</v>
+        <v>1.866056335278738</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.5621135374233</v>
+        <v>1.510956477236072</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.377491723461763</v>
+        <v>1.673757155020706</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F227">
-        <v>1.586837130741326</v>
+        <v>1.54056854081344</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5723,10 +5723,10 @@
         <v>3</v>
       </c>
       <c r="E228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F228">
-        <v>1.586397937355925</v>
+        <v>1.550593917417306</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.624172220332489</v>
+        <v>1.52993626414573</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.470941286750291</v>
+        <v>1.409841048282156</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>1</v>
       </c>
       <c r="F231">
-        <v>1.410323470977285</v>
+        <v>1.392120263844765</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.487953711634087</v>
+        <v>1.360915000189259</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5823,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="E233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F233">
-        <v>1.763728125312695</v>
+        <v>1.356106927401946</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>1.45007178522738</v>
+        <v>1.473467657963476</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.480873859345622</v>
+        <v>1.508503753839837</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.650758303127565</v>
+        <v>1.323859064843202</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.40017246992326</v>
+        <v>1.432043321706663</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.391967571102982</v>
+        <v>1.505195171773458</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.581813764360591</v>
+        <v>1.734222434089628</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5963,10 +5963,10 @@
         <v>3</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F240">
-        <v>1.398410196584704</v>
+        <v>1.412683279760179</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.406686594567457</v>
+        <v>1.448973269349646</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.844802255698677</v>
+        <v>1.583715061786445</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F243">
-        <v>1.51838443541105</v>
+        <v>1.576277157546889</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.432476885082582</v>
+        <v>1.587336393199265</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.433555997515472</v>
+        <v>1.645946793603394</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.59949871064593</v>
+        <v>1.335810315996396</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.527083926718455</v>
+        <v>1.230335124561554</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6123,10 +6123,10 @@
         <v>3</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F248">
-        <v>1.496354079026441</v>
+        <v>1.855412060343391</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.402755870336643</v>
+        <v>1.641268598506069</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.810186643931319</v>
+        <v>1.488357078744019</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F251">
-        <v>1.492601237647226</v>
+        <v>1.470945666270391</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.654225902022293</v>
+        <v>1.669840922834818</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.468960302738837</v>
+        <v>1.622288999681603</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.330397069414272</v>
+        <v>1.41112697314834</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.575397503893369</v>
+        <v>1.604651650532414</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.641402050030025</v>
+        <v>1.533442644314839</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.62721947700304</v>
+        <v>1.563353068965116</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/25_localizer.xlsx
+++ b/sequences/25_localizer.xlsx
@@ -31,6 +31,9 @@
     <t>iti</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
@@ -40,775 +43,772 @@
     <t>face</t>
   </si>
   <si>
-    <t>flower</t>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
   </si>
   <si>
     <t>dog/dog042.jpg</t>
   </si>
   <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
   </si>
   <si>
     <t>house/house036.jpg</t>
   </si>
   <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
     <t>flower/flower037.jpg</t>
   </si>
   <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
+    <t>flower/flower036.jpg</t>
   </si>
   <si>
     <t>face/face039.jpg</t>
   </si>
   <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
   </si>
   <si>
     <t>dog/dog047.jpg</t>
   </si>
   <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
   </si>
   <si>
     <t>flower/flower062.jpg</t>
   </si>
   <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
+    <t>house/house053.jpg</t>
   </si>
   <si>
     <t>face/face055.jpg</t>
   </si>
   <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
   </si>
   <si>
     <t>flower/flower055.jpg</t>
   </si>
   <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
   </si>
   <si>
     <t>face/face071.jpg</t>
   </si>
   <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
     <t>house/house071.jpg</t>
   </si>
   <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
     <t>face/face073.jpg</t>
   </si>
   <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
     <t>face/face064.jpg</t>
   </si>
   <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
     <t>house/house072.jpg</t>
   </si>
   <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
   </si>
   <si>
     <t>face/face092.jpg</t>
   </si>
   <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
     <t>house/house084.jpg</t>
   </si>
   <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
     <t>dog/dog085.jpg</t>
   </si>
   <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
   </si>
   <si>
     <t>house/house088.jpg</t>
   </si>
   <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
   </si>
   <si>
     <t>house/house082.jpg</t>
   </si>
   <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
   </si>
   <si>
     <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.655802698893057</v>
+        <v>1.516888087338905</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.414937946325102</v>
+        <v>1.536478865054415</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1.478193348732753</v>
+        <v>1.856190485564637</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.532091962700325</v>
+        <v>1.64565573285781</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.442783464229641</v>
+        <v>1.584348189345838</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1.490896793452793</v>
+        <v>1.350575487245987</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.425084084532665</v>
+        <v>1.295656065901269</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.605878195782801</v>
+        <v>1.273299678268443</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1.705227449393877</v>
+        <v>1.463822352355242</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.609619349372435</v>
+        <v>1.548604133176043</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.481848673798386</v>
+        <v>1.570768796990194</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1.409564491053402</v>
+        <v>1.526468350723375</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.558043768402168</v>
+        <v>1.436851885717716</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1.634100537982211</v>
+        <v>1.267957631356173</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>1.475776682430907</v>
+        <v>1.446735177557205</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.441993593145945</v>
+        <v>1.53376771399448</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.355471215302564</v>
+        <v>1.225873181552668</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.363327899695052</v>
+        <v>1.563940611481015</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.48473798921811</v>
+        <v>1.6553820370029</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.407452839692468</v>
+        <v>1.803852575737189</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.379654171910491</v>
+        <v>1.553527227770837</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.747425198011831</v>
+        <v>1.619148528127698</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.482343038446381</v>
+        <v>1.337974797561521</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.373158253029868</v>
+        <v>1.553054220299609</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.571778299074969</v>
+        <v>1.449551594975163</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.522753004084551</v>
+        <v>1.409816929848795</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.336293101276009</v>
+        <v>1.390280152936689</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.55639571320448</v>
+        <v>1.285719458900774</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.291930014462562</v>
+        <v>1.447153869672156</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.475896773683532</v>
+        <v>1.476033207331703</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1.164879763184087</v>
+        <v>1.657145068761122</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.433533077640701</v>
+        <v>1.686500353746584</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.567587886216552</v>
+        <v>1.508461842499105</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.567655310516219</v>
+        <v>1.376564497985606</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.227087353542228</v>
+        <v>1.326223461834048</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.510481796445938</v>
+        <v>1.616352690338312</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>1</v>
       </c>
       <c r="F38">
-        <v>1.659605736899655</v>
+        <v>1.552847561572868</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.448312095455983</v>
+        <v>1.358534919308999</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1.596146310985814</v>
+        <v>1.642350710332495</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.455026760015824</v>
+        <v>1.650779465015068</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.552194819324336</v>
+        <v>1.39424470494481</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.440445431712892</v>
+        <v>1.441516333178418</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.618709027808771</v>
+        <v>1.454829482741593</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.65506909312218</v>
+        <v>1.120967583792642</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.668906384403758</v>
+        <v>1.595531253479797</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.870893535113028</v>
+        <v>1.690545676591847</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.700892929052141</v>
+        <v>1.367262514901242</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.088829381137269</v>
+        <v>1.545283133367051</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.295991959632832</v>
+        <v>1.630956208140738</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.492707211903088</v>
+        <v>1.376323704131171</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.516362576658969</v>
+        <v>1.444182857023281</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>1.087388315315461</v>
+        <v>1.622234844060792</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.315808038342964</v>
+        <v>1.642257879667556</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.432354261013801</v>
+        <v>1.380886798288779</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.374502287769885</v>
+        <v>1.568491164800138</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.610554830999756</v>
+        <v>1.511680355880221</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.187244548803212</v>
+        <v>1.71102975202411</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.445356603651744</v>
+        <v>1.151398528131956</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>1.461736974483353</v>
+        <v>1.398715565501508</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>1.30357087972807</v>
+        <v>1.5175433361992</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.628342945825696</v>
+        <v>1.480770559160776</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>1.604411566841239</v>
+        <v>1.860650128696049</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>1.38801629985205</v>
+        <v>1.638558362823292</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.699421348403351</v>
+        <v>1.59869199878739</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>1.628933985775236</v>
+        <v>1.17005141406126</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.527404790025634</v>
+        <v>1.565638723595381</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.406414998969898</v>
+        <v>1.715821595578623</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>1.688071406423092</v>
+        <v>1.43418233266095</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.882229167136762</v>
+        <v>1.273633526304512</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.704563677442254</v>
+        <v>1.583706398594642</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2603,10 +2603,10 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>1.545559595492895</v>
+        <v>1.460331367404321</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2623,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>1.34184571069391</v>
+        <v>1.537288372601355</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.411680247147863</v>
+        <v>1.530875253334833</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.54346082304459</v>
+        <v>1.400605403474208</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.233014014040213</v>
+        <v>1.37224203220265</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.374137234747439</v>
+        <v>1.465092358454703</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>1.534274196265447</v>
+        <v>1.415635322864235</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.372984210004124</v>
+        <v>1.415396128351211</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.341833295516223</v>
+        <v>1.219466030126322</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2783,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>1.431033227043391</v>
+        <v>1.387671547198183</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2803,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>1.364770469012786</v>
+        <v>1.346000107242821</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.528341084503942</v>
+        <v>1.412565360402713</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.788395041121451</v>
+        <v>1.720107301877947</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.551455731285765</v>
+        <v>1.291004529603121</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2883,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86">
-        <v>1.473873896075868</v>
+        <v>1.80959129702153</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2903,10 +2903,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>1.433697718269826</v>
+        <v>1.744780633554478</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.643799521103314</v>
+        <v>1.482658227565311</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.593776581967524</v>
+        <v>1.582500814954757</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.129131296523325</v>
+        <v>1.243297919818534</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.522783385678588</v>
+        <v>1.636497103549959</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>1.786259911725222</v>
+        <v>1.481927534018484</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.529299758992976</v>
+        <v>1.221512929081952</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.434793603377794</v>
+        <v>1.582826261697018</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.669034238271128</v>
+        <v>1.36135931754339</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96">
-        <v>1.857501770115913</v>
+        <v>1.596366279711146</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.377338778545543</v>
+        <v>1.363241025885807</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.29117525663065</v>
+        <v>1.397767402970888</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.59244450378733</v>
+        <v>1.470118418721602</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.318721471126779</v>
+        <v>1.584958767024454</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.238315421484747</v>
+        <v>1.564396312233145</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.512576849828681</v>
+        <v>1.767702048323932</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.380543884934721</v>
+        <v>1.253655529121784</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.297113031892524</v>
+        <v>1.484073312664266</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>1.286033478400291</v>
+        <v>1.317096639594395</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.443016971143804</v>
+        <v>1.422039672065815</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.539506553360483</v>
+        <v>1.305635851841038</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.40792500824958</v>
+        <v>1.75382032030015</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.808619938234896</v>
+        <v>1.54031742280011</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.565197374442725</v>
+        <v>1.551589230733611</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3383,10 +3383,10 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>1.509959844811742</v>
+        <v>1.729805934382405</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.347044812603968</v>
+        <v>1.308658537457554</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.451781871580472</v>
+        <v>1.675961171908296</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>1.525843812377331</v>
+        <v>1.438036860520256</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.562966387460543</v>
+        <v>1.331797248081173</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.804490783505579</v>
+        <v>1.740981120063472</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.71224275500693</v>
+        <v>1.51335931851921</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.404188520680162</v>
+        <v>1.624433264980494</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.69205824788629</v>
+        <v>1.353524206187029</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.777528535915334</v>
+        <v>1.616617270178256</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.583236585370983</v>
+        <v>1.259224808783995</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.507741895519826</v>
+        <v>1.385820190035409</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123">
-        <v>1.49448258677861</v>
+        <v>1.347059395923057</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.591352567311608</v>
+        <v>1.6361756246158</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.699369118382011</v>
+        <v>1.574633045438912</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126">
-        <v>1.415068733747485</v>
+        <v>1.188096763528437</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.644021993037472</v>
+        <v>1.622787661411535</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.332993224982324</v>
+        <v>1.49834975359491</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.568447149568215</v>
+        <v>1.446762474427155</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.243572975084234</v>
+        <v>1.256865342618921</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.645720083166575</v>
+        <v>1.540571075589067</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.663987941708349</v>
+        <v>1.334169291327271</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3823,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>1.29449654170752</v>
+        <v>1.500814995358126</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.783081578095146</v>
+        <v>1.345900591478658</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.546153252787875</v>
+        <v>1.330533313643265</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.387203183435901</v>
+        <v>1.383003047329192</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.527748486083703</v>
+        <v>1.22080340759515</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.438467429667127</v>
+        <v>1.413319977917881</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.488897041740689</v>
+        <v>1.538531557189005</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.572386486180364</v>
+        <v>1.449600672557115</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3983,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>1.672929383903977</v>
+        <v>1.594090677755317</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.44966672132909</v>
+        <v>1.462689608450376</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.581557215227027</v>
+        <v>1.534671493670974</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.580070624681891</v>
+        <v>1.435434109572378</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.692042431065854</v>
+        <v>1.541605806007407</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.652965744768715</v>
+        <v>1.402539144109016</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147">
-        <v>1.375913513636376</v>
+        <v>1.572554281703433</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.4165218125012</v>
+        <v>1.610528349856295</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>1.291102494852544</v>
+        <v>1.452347381907554</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.624346041731024</v>
+        <v>1.272582028867742</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.550853442477399</v>
+        <v>1.40115681443259</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152">
-        <v>1.491162685349317</v>
+        <v>1.45134941125189</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.360903609634708</v>
+        <v>1.393766654547799</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>1.504806498918793</v>
+        <v>1.334834174233538</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.778460053336905</v>
+        <v>1.552658568307428</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.511452092702489</v>
+        <v>1.41318761060008</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.439133431052685</v>
+        <v>1.33629831838789</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.331637149895885</v>
+        <v>1.409383594283568</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4343,10 +4343,10 @@
         <v>2</v>
       </c>
       <c r="E159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>1.658861196086933</v>
+        <v>1.495283685008929</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160">
-        <v>1.353842695228903</v>
+        <v>1.275054729228985</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>1.671996648642443</v>
+        <v>1.5605057144448</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.404365910439515</v>
+        <v>1.576020596455007</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.478859921557142</v>
+        <v>1.549451502683064</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.492450785286875</v>
+        <v>1.4960313903836</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="E165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>1.624544077598814</v>
+        <v>1.383040125881577</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.417299452901371</v>
+        <v>1.191628681144246</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.299088743529836</v>
+        <v>1.42335062021308</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.655961286261141</v>
+        <v>1.52818984199861</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.779781788041318</v>
+        <v>1.296511230573957</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170">
-        <v>1.249097263724865</v>
+        <v>1.833341204628657</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.562505866637802</v>
+        <v>1.902191036084666</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.602740937508582</v>
+        <v>1.506472717727773</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.478316351770195</v>
+        <v>1.511540025864713</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.789777861297013</v>
+        <v>1.184923462183066</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.171492761241723</v>
+        <v>1.623238639279093</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.45908800230719</v>
+        <v>1.580100712510617</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177">
-        <v>1.464914814689589</v>
+        <v>1.361574506143689</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.503215464530161</v>
+        <v>1.492112803623717</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179">
-        <v>1.579404738156851</v>
+        <v>1.591752765044317</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.857693341729354</v>
+        <v>1.545052310862023</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.538501003632787</v>
+        <v>1.325819877095723</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.430157394558395</v>
+        <v>1.436244736649882</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.646980407569074</v>
+        <v>1.357450722005173</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.61308564175213</v>
+        <v>1.387976445576814</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>1</v>
       </c>
       <c r="F185">
-        <v>1.389524800561065</v>
+        <v>1.810579564855895</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.467171777994361</v>
+        <v>1.41210160653512</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.433095374349</v>
+        <v>1.572594464825736</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.513009981449641</v>
+        <v>1.352713812584426</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.470582945212067</v>
+        <v>1.478963625637991</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.343429234215306</v>
+        <v>1.526054966445488</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4983,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191">
-        <v>1.798341661394804</v>
+        <v>1.714475625921045</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.557679111578078</v>
+        <v>1.789042403805779</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.443948119671491</v>
+        <v>1.583601813948852</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194">
-        <v>1.331371625825808</v>
+        <v>1.544585263947217</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.50125763695551</v>
+        <v>1.412107110827146</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.779428007807615</v>
+        <v>1.437268034009609</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.595634437007208</v>
+        <v>1.59060558077734</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5126,7 +5126,7 @@
         <v>1</v>
       </c>
       <c r="F198">
-        <v>1.633258969068339</v>
+        <v>1.660367090990103</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.555957287640875</v>
+        <v>1.272186498825261</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.449957940374586</v>
+        <v>1.307640303187979</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.475213785895195</v>
+        <v>1.666521710784303</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202">
-        <v>1.488642488074543</v>
+        <v>1.660203877271227</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.611987978109841</v>
+        <v>1.748203504921978</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.321559737357347</v>
+        <v>1.527209388473138</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.54973724985876</v>
+        <v>1.287401226609852</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5283,10 +5283,10 @@
         <v>3</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206">
-        <v>1.847392650714995</v>
+        <v>1.617477344118188</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.303159492445998</v>
+        <v>1.273963908561731</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.597057929222234</v>
+        <v>1.571355169356242</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.472814442919254</v>
+        <v>1.543556310815199</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.63606810692359</v>
+        <v>1.703493245920938</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.478613766203309</v>
+        <v>1.46067667133969</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.503720388550302</v>
+        <v>1.468792413116165</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.432474508782031</v>
+        <v>1.579427458051487</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.777908604211341</v>
+        <v>1.504623790444748</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5463,10 +5463,10 @@
         <v>3</v>
       </c>
       <c r="E215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F215">
-        <v>1.672308682375691</v>
+        <v>1.659409461134407</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5483,10 +5483,10 @@
         <v>3</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F216">
-        <v>1.383172559442915</v>
+        <v>1.329181495407203</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>1.462548896099579</v>
+        <v>1.386502324942165</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F218">
-        <v>1.988646887829423</v>
+        <v>1.696503253479904</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.324791937560884</v>
+        <v>1.59738553403877</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.447396796719863</v>
+        <v>1.702081010399257</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.598776800393588</v>
+        <v>1.478432738512309</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.249644813811227</v>
+        <v>1.689428300672193</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.666498624855912</v>
+        <v>1.456580111826285</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.866056335278738</v>
+        <v>1.296541007130912</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.510956477236072</v>
+        <v>1.639391498801705</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.673757155020706</v>
+        <v>1.590609435983389</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.54056854081344</v>
+        <v>1.302847677593829</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.550593917417306</v>
+        <v>1.420332556336139</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.52993626414573</v>
+        <v>1.591276962761238</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.409841048282156</v>
+        <v>1.477931938483971</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F231">
-        <v>1.392120263844765</v>
+        <v>1.400027437276995</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.360915000189259</v>
+        <v>1.501989220056712</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.356106927401946</v>
+        <v>1.346022491649629</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.473467657963476</v>
+        <v>1.597467577016632</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.508503753839837</v>
+        <v>1.388932478422422</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.323859064843202</v>
+        <v>1.419927950185888</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.432043321706663</v>
+        <v>1.595104044879304</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.505195171773458</v>
+        <v>1.385728377093757</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.734222434089628</v>
+        <v>1.384029646764792</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5963,10 +5963,10 @@
         <v>3</v>
       </c>
       <c r="E240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F240">
-        <v>1.412683279760179</v>
+        <v>1.55310955713818</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5983,10 +5983,10 @@
         <v>3</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F241">
-        <v>1.448973269349646</v>
+        <v>1.818515149881098</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.583715061786445</v>
+        <v>1.315383951045071</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F243">
-        <v>1.576277157546889</v>
+        <v>1.485973972556161</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.587336393199265</v>
+        <v>1.539274900948633</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.645946793603394</v>
+        <v>1.407459484573269</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.335810315996396</v>
+        <v>1.628403455615005</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.230335124561554</v>
+        <v>1.492773460541556</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6123,10 +6123,10 @@
         <v>3</v>
       </c>
       <c r="E248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F248">
-        <v>1.855412060343391</v>
+        <v>1.564679447010412</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.641268598506069</v>
+        <v>1.488529997026476</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.488357078744019</v>
+        <v>1.500890725966941</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F251">
-        <v>1.470945666270391</v>
+        <v>1.425775917627609</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252">
-        <v>1.669840922834818</v>
+        <v>1.459911325120033</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.622288999681603</v>
+        <v>1.414286830074953</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.41112697314834</v>
+        <v>1.547142739034739</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.604651650532414</v>
+        <v>1.40286893142684</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.533442644314839</v>
+        <v>1.399791326469357</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.563353068965116</v>
+        <v>1.459968702047015</v>
       </c>
     </row>
   </sheetData>
